--- a/Bulk Loads/0923/_PRELIMINARY UTILITY EXPORT - FS_formatted.xlsx
+++ b/Bulk Loads/0923/_PRELIMINARY UTILITY EXPORT - FS_formatted.xlsx
@@ -1220,7 +1220,7 @@
         <v>1</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="G30" s="6">
         <f>IF(E30&gt;1,(1.732*D30*F30)/1000,(D30*F30)/1000)</f>

--- a/Bulk Loads/0923/_PRELIMINARY UTILITY EXPORT - FS_formatted.xlsx
+++ b/Bulk Loads/0923/_PRELIMINARY UTILITY EXPORT - FS_formatted.xlsx
@@ -44,7 +44,7 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
@@ -54,6 +54,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="00002060"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFF00"/>
+        <bgColor rgb="00FFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -69,7 +75,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -77,6 +83,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
@@ -507,7 +514,7 @@
     <row r="4" ht="27" customHeight="1">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>August 01, 2024</t>
+          <t>August 05, 2024</t>
         </is>
       </c>
     </row>
@@ -1220,7 +1227,7 @@
         <v>1</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="G30" s="6">
         <f>IF(E30&gt;1,(1.732*D30*F30)/1000,(D30*F30)/1000)</f>
@@ -2221,7 +2228,7 @@
           <t>HOT FOOD VENDING MACHINE</t>
         </is>
       </c>
-      <c r="D76" t="n">
+      <c r="D76" s="7" t="n">
         <v>260</v>
       </c>
       <c r="E76" t="n">
@@ -2264,7 +2271,7 @@
           <t>PIZZA VENDING MACHINE</t>
         </is>
       </c>
-      <c r="D78" t="n">
+      <c r="D78" s="7" t="n">
         <v>230</v>
       </c>
       <c r="E78" t="n">
@@ -2727,32 +2734,32 @@
       <c r="A99" t="inlineStr"/>
     </row>
     <row r="100">
-      <c r="A100" s="7" t="inlineStr">
+      <c r="A100" s="8" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="G100" s="8">
+      <c r="G100" s="9">
         <f>SUM(G7:G99)</f>
         <v/>
       </c>
-      <c r="J100" s="8">
+      <c r="J100" s="9">
         <f>SUM(J7:J99)</f>
         <v/>
       </c>
-      <c r="M100" s="8">
+      <c r="M100" s="9">
         <f>SUM(M7:M99)</f>
         <v/>
       </c>
-      <c r="N100" s="8">
+      <c r="N100" s="9">
         <f>SUM(N7:N99)</f>
         <v/>
       </c>
-      <c r="O100" s="8">
+      <c r="O100" s="9">
         <f>SUM(O7:O99)</f>
         <v/>
       </c>
-      <c r="P100" s="8">
+      <c r="P100" s="9">
         <f>SUM(P7:P99)</f>
         <v/>
       </c>

--- a/Bulk Loads/0923/_PRELIMINARY UTILITY EXPORT - FS_formatted.xlsx
+++ b/Bulk Loads/0923/_PRELIMINARY UTILITY EXPORT - FS_formatted.xlsx
@@ -481,7 +481,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A3:S100"/>
+  <dimension ref="A3:S101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="6" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
@@ -514,7 +514,7 @@
     <row r="4" ht="27" customHeight="1">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>August 05, 2024</t>
+          <t>August 07, 2024</t>
         </is>
       </c>
     </row>
@@ -1227,7 +1227,7 @@
         <v>1</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="G30" s="6">
         <f>IF(E30&gt;1,(1.732*D30*F30)/1000,(D30*F30)/1000)</f>
@@ -1241,163 +1241,177 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B31" t="n">
         <v>1</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>FRONT SERVING COUNTER</t>
-        </is>
-      </c>
-      <c r="F31" s="5" t="n"/>
-      <c r="G31" s="6" t="n"/>
-      <c r="S31" t="inlineStr">
-        <is>
-          <t>CUSTOM FABRICATION</t>
+          <t>REFRIGERATED GRAB &amp; GO CASE</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>120</v>
+      </c>
+      <c r="E31" t="n">
+        <v>1</v>
+      </c>
+      <c r="F31" s="5" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G31" s="6">
+        <f>IF(E31&gt;1,(1.732*D31*F31)/1000,(D31*F31)/1000)</f>
+        <v/>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>1 1/2"</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>POS SYSTEM</t>
-        </is>
-      </c>
-      <c r="D32" t="n">
-        <v>120</v>
-      </c>
-      <c r="E32" t="n">
-        <v>1</v>
-      </c>
-      <c r="F32" s="5" t="n">
-        <v>40</v>
-      </c>
-      <c r="G32" s="6">
-        <f>IF(E32&gt;1,(1.732*D32*F32)/1000,(D32*F32)/1000)</f>
-        <v/>
-      </c>
+          <t>FRONT SERVING COUNTER</t>
+        </is>
+      </c>
+      <c r="F32" s="5" t="n"/>
+      <c r="G32" s="6" t="n"/>
       <c r="S32" t="inlineStr">
         <is>
-          <t>BY OS&amp;E</t>
+          <t>CUSTOM FABRICATION</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>25</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>24</v>
+      </c>
+      <c r="B33" t="n">
+        <v>2</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>SPARE NUMBER</t>
-        </is>
-      </c>
-      <c r="F33" s="5" t="n"/>
-      <c r="G33" s="6" t="n"/>
+          <t>POS SYSTEM</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>120</v>
+      </c>
+      <c r="E33" t="n">
+        <v>1</v>
+      </c>
+      <c r="F33" s="5" t="n">
+        <v>40</v>
+      </c>
+      <c r="G33" s="6">
+        <f>IF(E33&gt;1,(1.732*D33*F33)/1000,(D33*F33)/1000)</f>
+        <v/>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>BY OS&amp;E</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>26</v>
-      </c>
-      <c r="B34" t="n">
-        <v>2</v>
+        <v>25</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>POS PRINTER</t>
-        </is>
-      </c>
-      <c r="D34" t="n">
-        <v>120</v>
-      </c>
-      <c r="E34" t="n">
-        <v>1</v>
-      </c>
-      <c r="F34" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="G34" s="6">
-        <f>IF(E34&gt;1,(1.732*D34*F34)/1000,(D34*F34)/1000)</f>
-        <v/>
-      </c>
-      <c r="S34" t="inlineStr">
-        <is>
-          <t>BY OS&amp;E</t>
-        </is>
-      </c>
+          <t>SPARE NUMBER</t>
+        </is>
+      </c>
+      <c r="F34" s="5" t="n"/>
+      <c r="G34" s="6" t="n"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>TEA WIRE RACK</t>
-        </is>
-      </c>
-      <c r="F35" s="5" t="n"/>
-      <c r="G35" s="6" t="n"/>
+          <t>POS PRINTER</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>120</v>
+      </c>
+      <c r="E35" t="n">
+        <v>1</v>
+      </c>
+      <c r="F35" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="G35" s="6">
+        <f>IF(E35&gt;1,(1.732*D35*F35)/1000,(D35*F35)/1000)</f>
+        <v/>
+      </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>BY VENDOR</t>
+          <t>BY OS&amp;E</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B36" t="n">
         <v>1</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>TRASH RECEPTACLE</t>
+          <t>TEA WIRE RACK</t>
         </is>
       </c>
       <c r="F36" s="5" t="n"/>
       <c r="G36" s="6" t="n"/>
       <c r="S36" t="inlineStr">
         <is>
-          <t>SLIM JIM</t>
+          <t>BY VENDOR</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>29</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>28</v>
+      </c>
+      <c r="B37" t="n">
+        <v>1</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>SPARE NUMBER</t>
+          <t>TRASH RECEPTACLE</t>
         </is>
       </c>
       <c r="F37" s="5" t="n"/>
       <c r="G37" s="6" t="n"/>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>SLIM JIM</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -1414,213 +1428,213 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>31</v>
-      </c>
-      <c r="B39" t="n">
-        <v>1</v>
+        <v>30</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>KNOCK BOX</t>
+          <t>SPARE NUMBER</t>
         </is>
       </c>
       <c r="F39" s="5" t="n"/>
       <c r="G39" s="6" t="n"/>
-      <c r="S39" t="inlineStr">
-        <is>
-          <t>CUSTOM FABRICATION PART OF ITEM #23</t>
-        </is>
-      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B40" t="n">
         <v>1</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>SYRUP WIRE RACK</t>
+          <t>KNOCK BOX</t>
         </is>
       </c>
       <c r="F40" s="5" t="n"/>
       <c r="G40" s="6" t="n"/>
       <c r="S40" t="inlineStr">
         <is>
-          <t>BY VENDOR</t>
+          <t>CUSTOM FABRICATION PART OF ITEM #23</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B41" t="n">
         <v>1</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>UNDERCOUNTER FREEZER</t>
-        </is>
-      </c>
-      <c r="D41" t="n">
-        <v>120</v>
-      </c>
-      <c r="E41" t="n">
-        <v>1</v>
-      </c>
-      <c r="F41" s="5" t="n">
-        <v>4</v>
-      </c>
-      <c r="G41" s="6">
-        <f>IF(E41&gt;1,(1.732*D41*F41)/1000,(D41*F41)/1000)</f>
-        <v/>
-      </c>
+          <t>SYRUP WIRE RACK</t>
+        </is>
+      </c>
+      <c r="F41" s="5" t="n"/>
+      <c r="G41" s="6" t="n"/>
       <c r="S41" t="inlineStr">
         <is>
-          <t>MOBILE</t>
+          <t>BY VENDOR</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B42" t="n">
         <v>1</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>ACRYLIC SURROUND</t>
-        </is>
-      </c>
-      <c r="F42" s="5" t="n"/>
-      <c r="G42" s="6" t="n"/>
+          <t>UNDERCOUNTER FREEZER</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>120</v>
+      </c>
+      <c r="E42" t="n">
+        <v>1</v>
+      </c>
+      <c r="F42" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="G42" s="6">
+        <f>IF(E42&gt;1,(1.732*D42*F42)/1000,(D42*F42)/1000)</f>
+        <v/>
+      </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>MILLWORK / BY GENERAL CONTRACTOR</t>
+          <t>MOBILE</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>35</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>34</v>
+      </c>
+      <c r="B43" t="n">
+        <v>1</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>SPARE NUMBER</t>
+          <t>ACRYLIC SURROUND</t>
         </is>
       </c>
       <c r="F43" s="5" t="n"/>
       <c r="G43" s="6" t="n"/>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>MILLWORK / BY GENERAL CONTRACTOR</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>36</v>
-      </c>
-      <c r="B44" t="n">
-        <v>1</v>
+        <v>35</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>SAUCE WIRE RACK</t>
+          <t>SPARE NUMBER</t>
         </is>
       </c>
       <c r="F44" s="5" t="n"/>
       <c r="G44" s="6" t="n"/>
-      <c r="S44" t="inlineStr">
-        <is>
-          <t>BY VENDOR</t>
-        </is>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B45" t="n">
         <v>1</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>ESPRESSO MACHINE</t>
-        </is>
-      </c>
-      <c r="D45" t="n">
-        <v>208</v>
-      </c>
-      <c r="E45" t="n">
-        <v>3</v>
-      </c>
-      <c r="F45" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="G45" s="6">
-        <f>IF(E45&gt;1,(1.732*D45*F45)/1000,(D45*F45)/1000)</f>
-        <v/>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>3/8"</t>
-        </is>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>1 1/2"</t>
+          <t>SAUCE WIRE RACK</t>
+        </is>
+      </c>
+      <c r="F45" s="5" t="n"/>
+      <c r="G45" s="6" t="n"/>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>BY VENDOR</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B46" t="n">
         <v>1</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>DRIP TROUGH</t>
-        </is>
-      </c>
-      <c r="F46" s="5" t="n"/>
-      <c r="G46" s="6" t="n"/>
+          <t>ESPRESSO MACHINE</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>208</v>
+      </c>
+      <c r="E46" t="n">
+        <v>3</v>
+      </c>
+      <c r="F46" s="5" t="n">
+        <v>30</v>
+      </c>
+      <c r="G46" s="6">
+        <f>IF(E46&gt;1,(1.732*D46*F46)/1000,(D46*F46)/1000)</f>
+        <v/>
+      </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>1 1/2"</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>39</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>38</v>
+      </c>
+      <c r="B47" t="n">
+        <v>1</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>SPARE NUMBER</t>
+          <t>DRIP TROUGH</t>
         </is>
       </c>
       <c r="F47" s="5" t="n"/>
       <c r="G47" s="6" t="n"/>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>1/2"</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>1/2"</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -1637,39 +1651,31 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>41</v>
-      </c>
-      <c r="B49" t="n">
-        <v>1</v>
+        <v>40</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>WATER STATION</t>
+          <t>SPARE NUMBER</t>
         </is>
       </c>
       <c r="F49" s="5" t="n"/>
       <c r="G49" s="6" t="n"/>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>1/2"</t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>1 1/4"</t>
-        </is>
-      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B50" t="n">
         <v>1</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>DIPPERWELL</t>
+          <t>WATER STATION</t>
         </is>
       </c>
       <c r="F50" s="5" t="n"/>
@@ -1681,61 +1687,69 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>1-1/2"</t>
+          <t>1 1/4"</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B51" t="n">
         <v>1</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>UNDERCOUNTER REFRIGERATOR</t>
-        </is>
-      </c>
-      <c r="D51" t="n">
-        <v>120</v>
-      </c>
-      <c r="E51" t="n">
-        <v>1</v>
-      </c>
-      <c r="F51" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="G51" s="6">
-        <f>IF(E51&gt;1,(1.732*D51*F51)/1000,(D51*F51)/1000)</f>
-        <v/>
-      </c>
-      <c r="S51" t="inlineStr">
-        <is>
-          <t>MOBILE</t>
+          <t>DIPPERWELL</t>
+        </is>
+      </c>
+      <c r="F51" s="5" t="n"/>
+      <c r="G51" s="6" t="n"/>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>1/2"</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>1-1/2"</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>44</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>43</v>
+      </c>
+      <c r="B52" t="n">
+        <v>1</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>SPARE NUMBER</t>
-        </is>
-      </c>
-      <c r="F52" s="5" t="n"/>
-      <c r="G52" s="6" t="n"/>
+          <t>UNDERCOUNTER REFRIGERATOR</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>120</v>
+      </c>
+      <c r="E52" t="n">
+        <v>1</v>
+      </c>
+      <c r="F52" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="G52" s="6">
+        <f>IF(E52&gt;1,(1.732*D52*F52)/1000,(D52*F52)/1000)</f>
+        <v/>
+      </c>
+      <c r="S52" t="inlineStr">
+        <is>
+          <t>MOBILE</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -1752,45 +1766,31 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>46</v>
-      </c>
-      <c r="B54" t="n">
-        <v>1</v>
+        <v>45</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>FREEZER MERCHANDISER</t>
-        </is>
-      </c>
-      <c r="D54" t="n">
-        <v>120</v>
-      </c>
-      <c r="E54" t="n">
-        <v>1</v>
-      </c>
-      <c r="F54" s="5" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="G54" s="6">
-        <f>IF(E54&gt;1,(1.732*D54*F54)/1000,(D54*F54)/1000)</f>
-        <v/>
-      </c>
-      <c r="S54" t="inlineStr">
-        <is>
-          <t>MOBILE</t>
-        </is>
-      </c>
+          <t>SPARE NUMBER</t>
+        </is>
+      </c>
+      <c r="F54" s="5" t="n"/>
+      <c r="G54" s="6" t="n"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>REFRIGERATED MERCHANDISER</t>
+          <t>FREEZER MERCHANDISER</t>
         </is>
       </c>
       <c r="D55" t="n">
@@ -1800,7 +1800,7 @@
         <v>1</v>
       </c>
       <c r="F55" s="5" t="n">
-        <v>3.1</v>
+        <v>4.6</v>
       </c>
       <c r="G55" s="6">
         <f>IF(E55&gt;1,(1.732*D55*F55)/1000,(D55*F55)/1000)</f>
@@ -1814,14 +1814,14 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>OPEN DISPLAY MERCHANDISER</t>
+          <t>REFRIGERATED MERCHANDISER</t>
         </is>
       </c>
       <c r="D56" t="n">
@@ -1831,33 +1831,47 @@
         <v>1</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>16.9</v>
+        <v>3.1</v>
       </c>
       <c r="G56" s="6">
         <f>IF(E56&gt;1,(1.732*D56*F56)/1000,(D56*F56)/1000)</f>
         <v/>
       </c>
+      <c r="S56" t="inlineStr">
+        <is>
+          <t>MOBILE</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>49</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>48</v>
+      </c>
+      <c r="B57" t="n">
+        <v>1</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>SPARE NUMBER</t>
-        </is>
-      </c>
-      <c r="F57" s="5" t="n"/>
-      <c r="G57" s="6" t="n"/>
+          <t>OPEN DISPLAY MERCHANDISER</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>120</v>
+      </c>
+      <c r="E57" t="n">
+        <v>1</v>
+      </c>
+      <c r="F57" s="5" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="G57" s="6">
+        <f>IF(E57&gt;1,(1.732*D57*F57)/1000,(D57*F57)/1000)</f>
+        <v/>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -1874,69 +1888,71 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>51</v>
-      </c>
-      <c r="B59" t="n">
-        <v>1</v>
+        <v>50</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>TRASH CHUTE</t>
+          <t>SPARE NUMBER</t>
         </is>
       </c>
       <c r="F59" s="5" t="n"/>
       <c r="G59" s="6" t="n"/>
-      <c r="S59" t="inlineStr">
-        <is>
-          <t>CUSTOM FABRICATION PART OF ITEM #63</t>
-        </is>
-      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B60" t="n">
         <v>1</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>TRASH RECEPTACLE</t>
+          <t>TRASH CHUTE</t>
         </is>
       </c>
       <c r="F60" s="5" t="n"/>
       <c r="G60" s="6" t="n"/>
       <c r="S60" t="inlineStr">
         <is>
-          <t>SLIM JIM</t>
+          <t>CUSTOM FABRICATION PART OF ITEM #63</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B61" t="n">
         <v>1</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>PAPER NAPKIN DISPENSER</t>
+          <t>TRASH RECEPTACLE</t>
         </is>
       </c>
       <c r="F61" s="5" t="n"/>
       <c r="G61" s="6" t="n"/>
+      <c r="S61" t="inlineStr">
+        <is>
+          <t>SLIM JIM</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B62" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>AIRPOT</t>
+          <t>PAPER NAPKIN DISPENSER</t>
         </is>
       </c>
       <c r="F62" s="5" t="n"/>
@@ -1944,16 +1960,14 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>55</v>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>54</v>
+      </c>
+      <c r="B63" t="n">
+        <v>3</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>SPARE NUMBER</t>
+          <t>AIRPOT</t>
         </is>
       </c>
       <c r="F63" s="5" t="n"/>
@@ -1961,14 +1975,16 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>56</v>
-      </c>
-      <c r="B64" t="n">
-        <v>2</v>
+        <v>55</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>CONDIMENT CADDY</t>
+          <t>SPARE NUMBER</t>
         </is>
       </c>
       <c r="F64" s="5" t="n"/>
@@ -1976,64 +1992,62 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B65" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>TRASH RECEPTACLE</t>
+          <t>CONDIMENT CADDY</t>
         </is>
       </c>
       <c r="F65" s="5" t="n"/>
       <c r="G65" s="6" t="n"/>
-      <c r="S65" t="inlineStr">
-        <is>
-          <t>SLIM JIM</t>
-        </is>
-      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B66" t="n">
         <v>1</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>TRASH CHUTE</t>
+          <t>TRASH RECEPTACLE</t>
         </is>
       </c>
       <c r="F66" s="5" t="n"/>
       <c r="G66" s="6" t="n"/>
       <c r="S66" t="inlineStr">
         <is>
-          <t>CUSTOM FABRICATION PART OF ITEM #63</t>
+          <t>SLIM JIM</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>59</v>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>58</v>
+      </c>
+      <c r="B67" t="n">
+        <v>1</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>SPARE NUMBER</t>
+          <t>TRASH CHUTE</t>
         </is>
       </c>
       <c r="F67" s="5" t="n"/>
       <c r="G67" s="6" t="n"/>
+      <c r="S67" t="inlineStr">
+        <is>
+          <t>CUSTOM FABRICATION PART OF ITEM #63</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -2050,45 +2064,31 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>61</v>
-      </c>
-      <c r="B69" t="n">
-        <v>2</v>
+        <v>60</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>SELF-PAY POS SYSTEM</t>
-        </is>
-      </c>
-      <c r="D69" t="n">
-        <v>120</v>
-      </c>
-      <c r="E69" t="n">
-        <v>1</v>
-      </c>
-      <c r="F69" s="5" t="n">
-        <v>40</v>
-      </c>
-      <c r="G69" s="6">
-        <f>IF(E69&gt;1,(1.732*D69*F69)/1000,(D69*F69)/1000)</f>
-        <v/>
-      </c>
-      <c r="S69" t="inlineStr">
-        <is>
-          <t>BY OS&amp;E</t>
-        </is>
-      </c>
+          <t>SPARE NUMBER</t>
+        </is>
+      </c>
+      <c r="F69" s="5" t="n"/>
+      <c r="G69" s="6" t="n"/>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B70" t="n">
         <v>2</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>POS PRINTER</t>
+          <t>SELF-PAY POS SYSTEM</t>
         </is>
       </c>
       <c r="D70" t="n">
@@ -2098,7 +2098,7 @@
         <v>1</v>
       </c>
       <c r="F70" s="5" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="G70" s="6">
         <f>IF(E70&gt;1,(1.732*D70*F70)/1000,(D70*F70)/1000)</f>
@@ -2112,14 +2112,14 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>SELF CHECK-OUT COUNTER</t>
+          <t>POS PRINTER</t>
         </is>
       </c>
       <c r="D71" t="n">
@@ -2129,7 +2129,7 @@
         <v>1</v>
       </c>
       <c r="F71" s="5" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G71" s="6">
         <f>IF(E71&gt;1,(1.732*D71*F71)/1000,(D71*F71)/1000)</f>
@@ -2137,24 +2137,35 @@
       </c>
       <c r="S71" t="inlineStr">
         <is>
-          <t>CUSTOM FABRICATION</t>
+          <t>BY OS&amp;E</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B72" t="n">
         <v>1</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>SNACK SHELVING</t>
-        </is>
-      </c>
-      <c r="F72" s="5" t="n"/>
-      <c r="G72" s="6" t="n"/>
+          <t>SELF CHECK-OUT COUNTER</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>120</v>
+      </c>
+      <c r="E72" t="n">
+        <v>1</v>
+      </c>
+      <c r="F72" s="5" t="n">
+        <v>20</v>
+      </c>
+      <c r="G72" s="6">
+        <f>IF(E72&gt;1,(1.732*D72*F72)/1000,(D72*F72)/1000)</f>
+        <v/>
+      </c>
       <c r="S72" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
@@ -2163,31 +2174,36 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>65</v>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>64</v>
+      </c>
+      <c r="B73" t="n">
+        <v>1</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>SPARE NUMBER</t>
+          <t>SNACK SHELVING</t>
         </is>
       </c>
       <c r="F73" s="5" t="n"/>
       <c r="G73" s="6" t="n"/>
+      <c r="S73" t="inlineStr">
+        <is>
+          <t>CUSTOM FABRICATION</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>66</v>
-      </c>
-      <c r="B74" t="n">
-        <v>1</v>
+        <v>65</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>ROBOBURGER MACHINE</t>
+          <t>SPARE NUMBER</t>
         </is>
       </c>
       <c r="F74" s="5" t="n"/>
@@ -2195,47 +2211,39 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B75" t="n">
         <v>1</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>SOFT SERVE ICE CREAM VENDING MACHINE</t>
-        </is>
-      </c>
-      <c r="D75" t="n">
-        <v>208</v>
-      </c>
-      <c r="E75" t="n">
-        <v>1</v>
-      </c>
-      <c r="F75" s="5" t="n">
-        <v>25</v>
-      </c>
+          <t>ROBOBURGER MACHINE</t>
+        </is>
+      </c>
+      <c r="F75" s="5" t="n"/>
       <c r="G75" s="6" t="n"/>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B76" t="n">
         <v>1</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>HOT FOOD VENDING MACHINE</t>
-        </is>
-      </c>
-      <c r="D76" s="7" t="n">
-        <v>260</v>
+          <t>SOFT SERVE ICE CREAM VENDING MACHINE</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>208</v>
       </c>
       <c r="E76" t="n">
         <v>1</v>
       </c>
       <c r="F76" s="5" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="G76" s="6">
         <f>IF(E76&gt;1,(1.732*D76*F76)/1000,(D76*F76)/1000)</f>
@@ -2244,67 +2252,76 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>69</v>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>68</v>
+      </c>
+      <c r="B77" t="n">
+        <v>1</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>SPARE NUMBER</t>
-        </is>
-      </c>
-      <c r="F77" s="5" t="n"/>
-      <c r="G77" s="6" t="n"/>
+          <t>HOT FOOD VENDING MACHINE</t>
+        </is>
+      </c>
+      <c r="D77" s="7" t="n">
+        <v>260</v>
+      </c>
+      <c r="E77" t="n">
+        <v>1</v>
+      </c>
+      <c r="F77" s="5" t="n">
+        <v>30</v>
+      </c>
+      <c r="G77" s="6">
+        <f>IF(E77&gt;1,(1.732*D77*F77)/1000,(D77*F77)/1000)</f>
+        <v/>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>71</v>
-      </c>
-      <c r="B78" t="n">
-        <v>1</v>
+        <v>69</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>PIZZA VENDING MACHINE</t>
-        </is>
-      </c>
-      <c r="D78" s="7" t="n">
-        <v>230</v>
-      </c>
-      <c r="E78" t="n">
-        <v>3</v>
-      </c>
-      <c r="F78" s="5" t="n">
-        <v>32</v>
-      </c>
-      <c r="G78" s="6">
-        <f>IF(E78&gt;1,(1.732*D78*F78)/1000,(D78*F78)/1000)</f>
-        <v/>
-      </c>
+          <t>SPARE NUMBER</t>
+        </is>
+      </c>
+      <c r="F78" s="5" t="n"/>
+      <c r="G78" s="6" t="n"/>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>72</v>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>71</v>
+      </c>
+      <c r="B79" t="n">
+        <v>1</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>SPARE NUMBER</t>
-        </is>
-      </c>
-      <c r="F79" s="5" t="n"/>
-      <c r="G79" s="6" t="n"/>
+          <t>PIZZA VENDING MACHINE</t>
+        </is>
+      </c>
+      <c r="D79" s="7" t="n">
+        <v>230</v>
+      </c>
+      <c r="E79" t="n">
+        <v>3</v>
+      </c>
+      <c r="F79" s="5" t="n">
+        <v>32</v>
+      </c>
+      <c r="G79" s="6">
+        <f>IF(E79&gt;1,(1.732*D79*F79)/1000,(D79*F79)/1000)</f>
+        <v/>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
@@ -2321,7 +2338,7 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
@@ -2337,10 +2354,8 @@
       <c r="G81" s="6" t="n"/>
     </row>
     <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>75-80</t>
-        </is>
+      <c r="A82" t="n">
+        <v>74</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
@@ -2356,82 +2371,81 @@
       <c r="G82" s="6" t="n"/>
     </row>
     <row r="83">
-      <c r="A83" s="3" t="inlineStr">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>75-80</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>SPARE NUMBER</t>
+        </is>
+      </c>
+      <c r="F83" s="5" t="n"/>
+      <c r="G83" s="6" t="n"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="3" t="inlineStr">
         <is>
           <t>BACK OF HOUSE AREA</t>
         </is>
       </c>
-      <c r="B83" s="4" t="n"/>
-      <c r="C83" s="4" t="n"/>
-      <c r="D83" s="4" t="n"/>
-      <c r="E83" s="4" t="n"/>
-      <c r="F83" s="4" t="n"/>
-      <c r="G83" s="4" t="n"/>
-      <c r="H83" s="4" t="n"/>
-      <c r="I83" s="4" t="n"/>
-      <c r="J83" s="4" t="n"/>
-      <c r="K83" s="4" t="n"/>
-      <c r="L83" s="4" t="n"/>
-      <c r="M83" s="4" t="n"/>
-      <c r="N83" s="4" t="n"/>
-      <c r="O83" s="4" t="n"/>
-      <c r="P83" s="4" t="n"/>
-      <c r="Q83" s="4" t="n"/>
-      <c r="R83" s="4" t="n"/>
-      <c r="S83" s="4" t="n"/>
-    </row>
-    <row r="84">
-      <c r="A84" t="n">
-        <v>81</v>
-      </c>
-      <c r="B84" t="n">
-        <v>1</v>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>THREE COMPARTMENT SINK</t>
-        </is>
-      </c>
-      <c r="F84" s="5" t="n"/>
-      <c r="G84" s="6" t="n"/>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>(2)3/4"</t>
-        </is>
-      </c>
-      <c r="I84" t="inlineStr">
-        <is>
-          <t>(2)3/4"</t>
-        </is>
-      </c>
-      <c r="J84" t="n">
-        <v>90</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>(3)2"</t>
-        </is>
-      </c>
-      <c r="S84" t="inlineStr">
-        <is>
-          <t>CUSTOM FABRICATION</t>
-        </is>
-      </c>
+      <c r="B84" s="4" t="n"/>
+      <c r="C84" s="4" t="n"/>
+      <c r="D84" s="4" t="n"/>
+      <c r="E84" s="4" t="n"/>
+      <c r="F84" s="4" t="n"/>
+      <c r="G84" s="4" t="n"/>
+      <c r="H84" s="4" t="n"/>
+      <c r="I84" s="4" t="n"/>
+      <c r="J84" s="4" t="n"/>
+      <c r="K84" s="4" t="n"/>
+      <c r="L84" s="4" t="n"/>
+      <c r="M84" s="4" t="n"/>
+      <c r="N84" s="4" t="n"/>
+      <c r="O84" s="4" t="n"/>
+      <c r="P84" s="4" t="n"/>
+      <c r="Q84" s="4" t="n"/>
+      <c r="R84" s="4" t="n"/>
+      <c r="S84" s="4" t="n"/>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B85" t="n">
         <v>1</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>POT SHELF</t>
+          <t>THREE COMPARTMENT SINK</t>
         </is>
       </c>
       <c r="F85" s="5" t="n"/>
       <c r="G85" s="6" t="n"/>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>(2)3/4"</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>(2)3/4"</t>
+        </is>
+      </c>
+      <c r="J85" t="n">
+        <v>90</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>(3)2"</t>
+        </is>
+      </c>
       <c r="S85" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
@@ -2440,45 +2454,34 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B86" t="n">
         <v>1</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>REACH-IN FREEZER</t>
-        </is>
-      </c>
-      <c r="D86" t="n">
-        <v>120</v>
-      </c>
-      <c r="E86" t="n">
-        <v>1</v>
-      </c>
-      <c r="F86" s="5" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="G86" s="6">
-        <f>IF(E86&gt;1,(1.732*D86*F86)/1000,(D86*F86)/1000)</f>
-        <v/>
-      </c>
+          <t>POT SHELF</t>
+        </is>
+      </c>
+      <c r="F86" s="5" t="n"/>
+      <c r="G86" s="6" t="n"/>
       <c r="S86" t="inlineStr">
         <is>
-          <t>MOBILE</t>
+          <t>CUSTOM FABRICATION</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B87" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>REACH-IN REFRIGERATOR</t>
+          <t>REACH-IN FREEZER</t>
         </is>
       </c>
       <c r="D87" t="n">
@@ -2488,7 +2491,7 @@
         <v>1</v>
       </c>
       <c r="F87" s="5" t="n">
-        <v>10.8</v>
+        <v>3.7</v>
       </c>
       <c r="G87" s="6">
         <f>IF(E87&gt;1,(1.732*D87*F87)/1000,(D87*F87)/1000)</f>
@@ -2502,31 +2505,47 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>85</v>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>84</v>
+      </c>
+      <c r="B88" t="n">
+        <v>2</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>SPARE NUMBER</t>
-        </is>
-      </c>
-      <c r="F88" s="5" t="n"/>
-      <c r="G88" s="6" t="n"/>
+          <t>REACH-IN REFRIGERATOR</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>120</v>
+      </c>
+      <c r="E88" t="n">
+        <v>1</v>
+      </c>
+      <c r="F88" s="5" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="G88" s="6">
+        <f>IF(E88&gt;1,(1.732*D88*F88)/1000,(D88*F88)/1000)</f>
+        <v/>
+      </c>
+      <c r="S88" t="inlineStr">
+        <is>
+          <t>MOBILE</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>86</v>
-      </c>
-      <c r="B89" t="n">
-        <v>1</v>
+        <v>85</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>SOILED DISH TABLE</t>
+          <t>SPARE NUMBER</t>
         </is>
       </c>
       <c r="F89" s="5" t="n"/>
@@ -2534,98 +2553,96 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B90" t="n">
         <v>1</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>UNDERCOUNTER DISHWASHER</t>
-        </is>
-      </c>
-      <c r="D90" t="n">
-        <v>120</v>
-      </c>
-      <c r="E90" t="n">
-        <v>1</v>
-      </c>
-      <c r="F90" s="5" t="n">
-        <v>12</v>
-      </c>
-      <c r="G90" s="6">
-        <f>IF(E90&gt;1,(1.732*D90*F90)/1000,(D90*F90)/1000)</f>
-        <v/>
-      </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>3/8"</t>
-        </is>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>6.5"</t>
-        </is>
-      </c>
+          <t>SOILED DISH TABLE</t>
+        </is>
+      </c>
+      <c r="F90" s="5" t="n"/>
+      <c r="G90" s="6" t="n"/>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B91" t="n">
         <v>1</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>HAND SINK</t>
-        </is>
-      </c>
-      <c r="F91" s="5" t="n"/>
-      <c r="G91" s="6" t="n"/>
+          <t>UNDERCOUNTER DISHWASHER</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>120</v>
+      </c>
+      <c r="E91" t="n">
+        <v>1</v>
+      </c>
+      <c r="F91" s="5" t="n">
+        <v>12</v>
+      </c>
+      <c r="G91" s="6">
+        <f>IF(E91&gt;1,(1.732*D91*F91)/1000,(D91*F91)/1000)</f>
+        <v/>
+      </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>1/2"</t>
-        </is>
-      </c>
-      <c r="I91" t="inlineStr">
-        <is>
-          <t>1/2"</t>
-        </is>
-      </c>
-      <c r="J91" t="n">
-        <v>5</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>1-1/2"</t>
-        </is>
-      </c>
-      <c r="S91" t="inlineStr">
-        <is>
-          <t>WITH VENDOR PROVIDED SOAP &amp; TOWEL DISPENSER</t>
+          <t>3/8"</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>6.5"</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>89</v>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>88</v>
+      </c>
+      <c r="B92" t="n">
+        <v>1</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>SPARE NUMBER</t>
+          <t>HAND SINK</t>
         </is>
       </c>
       <c r="F92" s="5" t="n"/>
       <c r="G92" s="6" t="n"/>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>1/2"</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>1/2"</t>
+        </is>
+      </c>
+      <c r="J92" t="n">
+        <v>5</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>1-1/2"</t>
+        </is>
+      </c>
+      <c r="S92" t="inlineStr">
+        <is>
+          <t>WITH VENDOR PROVIDED SOAP &amp; TOWEL DISPENSER</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
@@ -2642,44 +2659,44 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>91</v>
-      </c>
-      <c r="B94" t="n">
-        <v>1</v>
+        <v>90</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>TRASH RECEPTACLE</t>
+          <t>SPARE NUMBER</t>
         </is>
       </c>
       <c r="F94" s="5" t="n"/>
       <c r="G94" s="6" t="n"/>
-      <c r="S94" t="inlineStr">
-        <is>
-          <t>SLIM JIM</t>
-        </is>
-      </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>92</v>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>91</v>
+      </c>
+      <c r="B95" t="n">
+        <v>1</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>SPARE NUMBER</t>
+          <t>TRASH RECEPTACLE</t>
         </is>
       </c>
       <c r="F95" s="5" t="n"/>
       <c r="G95" s="6" t="n"/>
+      <c r="S95" t="inlineStr">
+        <is>
+          <t>SLIM JIM</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
@@ -2696,7 +2713,7 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
@@ -2712,10 +2729,8 @@
       <c r="G97" s="6" t="n"/>
     </row>
     <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>95-100</t>
-        </is>
+      <c r="A98" t="n">
+        <v>94</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
@@ -2731,36 +2746,55 @@
       <c r="G98" s="6" t="n"/>
     </row>
     <row r="99">
-      <c r="A99" t="inlineStr"/>
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>95-100</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>SPARE NUMBER</t>
+        </is>
+      </c>
+      <c r="F99" s="5" t="n"/>
+      <c r="G99" s="6" t="n"/>
     </row>
     <row r="100">
-      <c r="A100" s="8" t="inlineStr">
+      <c r="A100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="8" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="G100" s="9">
-        <f>SUM(G7:G99)</f>
-        <v/>
-      </c>
-      <c r="J100" s="9">
-        <f>SUM(J7:J99)</f>
-        <v/>
-      </c>
-      <c r="M100" s="9">
-        <f>SUM(M7:M99)</f>
-        <v/>
-      </c>
-      <c r="N100" s="9">
-        <f>SUM(N7:N99)</f>
-        <v/>
-      </c>
-      <c r="O100" s="9">
-        <f>SUM(O7:O99)</f>
-        <v/>
-      </c>
-      <c r="P100" s="9">
-        <f>SUM(P7:P99)</f>
+      <c r="G101" s="9">
+        <f>SUM(G7:G100)</f>
+        <v/>
+      </c>
+      <c r="J101" s="9">
+        <f>SUM(J7:J100)</f>
+        <v/>
+      </c>
+      <c r="M101" s="9">
+        <f>SUM(M7:M100)</f>
+        <v/>
+      </c>
+      <c r="N101" s="9">
+        <f>SUM(N7:N100)</f>
+        <v/>
+      </c>
+      <c r="O101" s="9">
+        <f>SUM(O7:O100)</f>
+        <v/>
+      </c>
+      <c r="P101" s="9">
+        <f>SUM(P7:P100)</f>
         <v/>
       </c>
     </row>

--- a/Bulk Loads/0923/_PRELIMINARY UTILITY EXPORT - FS_formatted.xlsx
+++ b/Bulk Loads/0923/_PRELIMINARY UTILITY EXPORT - FS_formatted.xlsx
@@ -75,12 +75,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -514,7 +520,7 @@
     <row r="4" ht="27" customHeight="1">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>August 07, 2024</t>
+          <t>August 13, 2024</t>
         </is>
       </c>
     </row>
@@ -645,10 +651,10 @@
       <c r="S8" s="4" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" t="n">
-        <v>1</v>
-      </c>
-      <c r="B9" t="n">
+      <c r="A9" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B9" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C9" t="inlineStr">
@@ -662,10 +668,10 @@
       <c r="E9" t="n">
         <v>1</v>
       </c>
-      <c r="F9" s="5" t="n">
+      <c r="F9" s="7" t="n">
         <v>40</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="8">
         <f>IF(E9&gt;1,(1.732*D9*F9)/1000,(D9*F9)/1000)</f>
         <v/>
       </c>
@@ -694,10 +700,10 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
+      <c r="A10" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10" s="6" t="n">
         <v>2</v>
       </c>
       <c r="C10" t="inlineStr">
@@ -711,10 +717,10 @@
       <c r="E10" t="n">
         <v>1</v>
       </c>
-      <c r="F10" s="5" t="n">
+      <c r="F10" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="8">
         <f>IF(E10&gt;1,(1.732*D10*F10)/1000,(D10*F10)/1000)</f>
         <v/>
       </c>
@@ -725,10 +731,10 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
+      <c r="A11" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C11" t="inlineStr">
@@ -742,10 +748,10 @@
       <c r="E11" t="n">
         <v>1</v>
       </c>
-      <c r="F11" s="5" t="n">
+      <c r="F11" s="7" t="n">
         <v>23.9</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11" s="8">
         <f>IF(E11&gt;1,(1.732*D11*F11)/1000,(D11*F11)/1000)</f>
         <v/>
       </c>
@@ -764,10 +770,10 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="n">
+      <c r="A12" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C12" t="inlineStr">
@@ -775,8 +781,8 @@
           <t>DROP-IN ICE BIN</t>
         </is>
       </c>
-      <c r="F12" s="5" t="n"/>
-      <c r="G12" s="6" t="n"/>
+      <c r="F12" s="7" t="n"/>
+      <c r="G12" s="8" t="n"/>
       <c r="K12" t="inlineStr">
         <is>
           <t>1"</t>
@@ -784,10 +790,10 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="n">
+      <c r="A13" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C13" t="inlineStr">
@@ -795,8 +801,8 @@
           <t>HAND SINK</t>
         </is>
       </c>
-      <c r="F13" s="5" t="n"/>
-      <c r="G13" s="6" t="n"/>
+      <c r="F13" s="7" t="n"/>
+      <c r="G13" s="8" t="n"/>
       <c r="H13" t="inlineStr">
         <is>
           <t>1/2"</t>
@@ -822,10 +828,10 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="n">
+      <c r="A14" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C14" t="inlineStr">
@@ -839,10 +845,10 @@
       <c r="E14" t="n">
         <v>1</v>
       </c>
-      <c r="F14" s="5" t="n">
+      <c r="F14" s="7" t="n">
         <v>1.4</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G14" s="8">
         <f>IF(E14&gt;1,(1.732*D14*F14)/1000,(D14*F14)/1000)</f>
         <v/>
       </c>
@@ -853,10 +859,10 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="n">
+      <c r="A15" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C15" t="inlineStr">
@@ -870,19 +876,19 @@
       <c r="E15" t="n">
         <v>1</v>
       </c>
-      <c r="F15" s="5" t="n">
+      <c r="F15" s="7" t="n">
         <v>11</v>
       </c>
-      <c r="G15" s="6">
+      <c r="G15" s="8">
         <f>IF(E15&gt;1,(1.732*D15*F15)/1000,(D15*F15)/1000)</f>
         <v/>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="n">
+      <c r="A16" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C16" t="inlineStr">
@@ -896,10 +902,10 @@
       <c r="E16" t="n">
         <v>3</v>
       </c>
-      <c r="F16" s="5" t="n">
+      <c r="F16" s="7" t="n">
         <v>15</v>
       </c>
-      <c r="G16" s="6">
+      <c r="G16" s="8">
         <f>IF(E16&gt;1,(1.732*D16*F16)/1000,(D16*F16)/1000)</f>
         <v/>
       </c>
@@ -915,10 +921,10 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="n">
+      <c r="A17" s="5" t="n">
         <v>9</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C17" t="inlineStr">
@@ -926,8 +932,8 @@
           <t>WATER FILTRATION SYSTEM</t>
         </is>
       </c>
-      <c r="F17" s="5" t="n"/>
-      <c r="G17" s="6" t="n"/>
+      <c r="F17" s="7" t="n"/>
+      <c r="G17" s="8" t="n"/>
       <c r="H17" t="inlineStr">
         <is>
           <t>3/8"</t>
@@ -940,10 +946,10 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="n">
+      <c r="A18" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -953,14 +959,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F18" s="5" t="n"/>
-      <c r="G18" s="6" t="n"/>
+      <c r="F18" s="7" t="n"/>
+      <c r="G18" s="8" t="n"/>
     </row>
     <row r="19">
-      <c r="A19" t="n">
+      <c r="A19" s="5" t="n">
         <v>11</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C19" t="inlineStr">
@@ -974,10 +980,10 @@
       <c r="E19" t="n">
         <v>1</v>
       </c>
-      <c r="F19" s="5" t="n">
+      <c r="F19" s="7" t="n">
         <v>19.7</v>
       </c>
-      <c r="G19" s="6">
+      <c r="G19" s="8">
         <f>IF(E19&gt;1,(1.732*D19*F19)/1000,(D19*F19)/1000)</f>
         <v/>
       </c>
@@ -991,10 +997,10 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="n">
+      <c r="A20" s="5" t="n">
         <v>12</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C20" t="inlineStr">
@@ -1008,10 +1014,10 @@
       <c r="E20" t="n">
         <v>1</v>
       </c>
-      <c r="F20" s="5" t="n">
+      <c r="F20" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="G20" s="6">
+      <c r="G20" s="8">
         <f>IF(E20&gt;1,(1.732*D20*F20)/1000,(D20*F20)/1000)</f>
         <v/>
       </c>
@@ -1022,10 +1028,10 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="n">
+      <c r="A21" s="5" t="n">
         <v>13</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21" s="6" t="n">
         <v>6</v>
       </c>
       <c r="C21" t="inlineStr">
@@ -1033,14 +1039,14 @@
           <t>AIRPOT</t>
         </is>
       </c>
-      <c r="F21" s="5" t="n"/>
-      <c r="G21" s="6" t="n"/>
+      <c r="F21" s="7" t="n"/>
+      <c r="G21" s="8" t="n"/>
     </row>
     <row r="22">
-      <c r="A22" t="n">
+      <c r="A22" s="5" t="n">
         <v>14</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C22" t="inlineStr">
@@ -1048,14 +1054,14 @@
           <t>AIRPOT SERVING RACK</t>
         </is>
       </c>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="6" t="n"/>
+      <c r="F22" s="7" t="n"/>
+      <c r="G22" s="8" t="n"/>
     </row>
     <row r="23">
-      <c r="A23" t="n">
+      <c r="A23" s="5" t="n">
         <v>15</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -1065,14 +1071,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="6" t="n"/>
+      <c r="F23" s="7" t="n"/>
+      <c r="G23" s="8" t="n"/>
     </row>
     <row r="24">
-      <c r="A24" t="n">
+      <c r="A24" s="5" t="n">
         <v>16</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C24" t="inlineStr">
@@ -1086,10 +1092,10 @@
       <c r="E24" t="n">
         <v>1</v>
       </c>
-      <c r="F24" s="5" t="n">
+      <c r="F24" s="7" t="n">
         <v>6</v>
       </c>
-      <c r="G24" s="6">
+      <c r="G24" s="8">
         <f>IF(E24&gt;1,(1.732*D24*F24)/1000,(D24*F24)/1000)</f>
         <v/>
       </c>
@@ -1103,10 +1109,10 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="n">
+      <c r="A25" s="5" t="n">
         <v>17</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25" s="6" t="n">
         <v>2</v>
       </c>
       <c r="C25" t="inlineStr">
@@ -1114,14 +1120,14 @@
           <t>ICED TEA DISPENSER</t>
         </is>
       </c>
-      <c r="F25" s="5" t="n"/>
-      <c r="G25" s="6" t="n"/>
+      <c r="F25" s="7" t="n"/>
+      <c r="G25" s="8" t="n"/>
     </row>
     <row r="26">
-      <c r="A26" t="n">
+      <c r="A26" s="5" t="n">
         <v>18</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C26" t="inlineStr">
@@ -1135,10 +1141,10 @@
       <c r="E26" t="n">
         <v>1</v>
       </c>
-      <c r="F26" s="5" t="n">
+      <c r="F26" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="G26" s="6">
+      <c r="G26" s="8">
         <f>IF(E26&gt;1,(1.732*D26*F26)/1000,(D26*F26)/1000)</f>
         <v/>
       </c>
@@ -1149,10 +1155,10 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="n">
+      <c r="A27" s="5" t="n">
         <v>19</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -1162,14 +1168,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F27" s="5" t="n"/>
-      <c r="G27" s="6" t="n"/>
+      <c r="F27" s="7" t="n"/>
+      <c r="G27" s="8" t="n"/>
     </row>
     <row r="28">
-      <c r="A28" t="n">
+      <c r="A28" s="5" t="n">
         <v>20</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -1179,14 +1185,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F28" s="5" t="n"/>
-      <c r="G28" s="6" t="n"/>
+      <c r="F28" s="7" t="n"/>
+      <c r="G28" s="8" t="n"/>
     </row>
     <row r="29">
-      <c r="A29" t="n">
+      <c r="A29" s="5" t="n">
         <v>21</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C29" t="inlineStr">
@@ -1200,19 +1206,19 @@
       <c r="E29" t="n">
         <v>3</v>
       </c>
-      <c r="F29" s="5" t="n">
+      <c r="F29" s="7" t="n">
         <v>20</v>
       </c>
-      <c r="G29" s="6">
+      <c r="G29" s="8">
         <f>IF(E29&gt;1,(1.732*D29*F29)/1000,(D29*F29)/1000)</f>
         <v/>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="n">
+      <c r="A30" s="5" t="n">
         <v>22</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C30" t="inlineStr">
@@ -1226,10 +1232,10 @@
       <c r="E30" t="n">
         <v>1</v>
       </c>
-      <c r="F30" s="5" t="n">
+      <c r="F30" s="7" t="n">
         <v>16</v>
       </c>
-      <c r="G30" s="6">
+      <c r="G30" s="8">
         <f>IF(E30&gt;1,(1.732*D30*F30)/1000,(D30*F30)/1000)</f>
         <v/>
       </c>
@@ -1240,10 +1246,10 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="n">
+      <c r="A31" s="5" t="n">
         <v>22</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C31" t="inlineStr">
@@ -1257,10 +1263,10 @@
       <c r="E31" t="n">
         <v>1</v>
       </c>
-      <c r="F31" s="5" t="n">
+      <c r="F31" s="7" t="n">
         <v>1.5</v>
       </c>
-      <c r="G31" s="6">
+      <c r="G31" s="8">
         <f>IF(E31&gt;1,(1.732*D31*F31)/1000,(D31*F31)/1000)</f>
         <v/>
       </c>
@@ -1271,10 +1277,10 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="n">
+      <c r="A32" s="5" t="n">
         <v>23</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C32" t="inlineStr">
@@ -1282,8 +1288,8 @@
           <t>FRONT SERVING COUNTER</t>
         </is>
       </c>
-      <c r="F32" s="5" t="n"/>
-      <c r="G32" s="6" t="n"/>
+      <c r="F32" s="7" t="n"/>
+      <c r="G32" s="8" t="n"/>
       <c r="S32" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
@@ -1291,10 +1297,10 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="n">
+      <c r="A33" s="5" t="n">
         <v>24</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33" s="6" t="n">
         <v>2</v>
       </c>
       <c r="C33" t="inlineStr">
@@ -1308,10 +1314,10 @@
       <c r="E33" t="n">
         <v>1</v>
       </c>
-      <c r="F33" s="5" t="n">
+      <c r="F33" s="7" t="n">
         <v>40</v>
       </c>
-      <c r="G33" s="6">
+      <c r="G33" s="8">
         <f>IF(E33&gt;1,(1.732*D33*F33)/1000,(D33*F33)/1000)</f>
         <v/>
       </c>
@@ -1322,10 +1328,10 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="n">
+      <c r="A34" s="5" t="n">
         <v>25</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -1335,14 +1341,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F34" s="5" t="n"/>
-      <c r="G34" s="6" t="n"/>
+      <c r="F34" s="7" t="n"/>
+      <c r="G34" s="8" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" t="n">
+      <c r="A35" s="5" t="n">
         <v>26</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35" s="6" t="n">
         <v>2</v>
       </c>
       <c r="C35" t="inlineStr">
@@ -1356,10 +1362,10 @@
       <c r="E35" t="n">
         <v>1</v>
       </c>
-      <c r="F35" s="5" t="n">
+      <c r="F35" s="7" t="n">
         <v>10</v>
       </c>
-      <c r="G35" s="6">
+      <c r="G35" s="8">
         <f>IF(E35&gt;1,(1.732*D35*F35)/1000,(D35*F35)/1000)</f>
         <v/>
       </c>
@@ -1370,10 +1376,10 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="n">
+      <c r="A36" s="5" t="n">
         <v>27</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C36" t="inlineStr">
@@ -1381,8 +1387,8 @@
           <t>TEA WIRE RACK</t>
         </is>
       </c>
-      <c r="F36" s="5" t="n"/>
-      <c r="G36" s="6" t="n"/>
+      <c r="F36" s="7" t="n"/>
+      <c r="G36" s="8" t="n"/>
       <c r="S36" t="inlineStr">
         <is>
           <t>BY VENDOR</t>
@@ -1390,10 +1396,10 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="n">
+      <c r="A37" s="5" t="n">
         <v>28</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C37" t="inlineStr">
@@ -1401,8 +1407,8 @@
           <t>TRASH RECEPTACLE</t>
         </is>
       </c>
-      <c r="F37" s="5" t="n"/>
-      <c r="G37" s="6" t="n"/>
+      <c r="F37" s="7" t="n"/>
+      <c r="G37" s="8" t="n"/>
       <c r="S37" t="inlineStr">
         <is>
           <t>SLIM JIM</t>
@@ -1410,10 +1416,10 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="n">
+      <c r="A38" s="5" t="n">
         <v>29</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -1423,14 +1429,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F38" s="5" t="n"/>
-      <c r="G38" s="6" t="n"/>
+      <c r="F38" s="7" t="n"/>
+      <c r="G38" s="8" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" t="n">
+      <c r="A39" s="5" t="n">
         <v>30</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -1440,14 +1446,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F39" s="5" t="n"/>
-      <c r="G39" s="6" t="n"/>
+      <c r="F39" s="7" t="n"/>
+      <c r="G39" s="8" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" t="n">
+      <c r="A40" s="5" t="n">
         <v>31</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C40" t="inlineStr">
@@ -1455,8 +1461,8 @@
           <t>KNOCK BOX</t>
         </is>
       </c>
-      <c r="F40" s="5" t="n"/>
-      <c r="G40" s="6" t="n"/>
+      <c r="F40" s="7" t="n"/>
+      <c r="G40" s="8" t="n"/>
       <c r="S40" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #23</t>
@@ -1464,10 +1470,10 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="n">
+      <c r="A41" s="5" t="n">
         <v>32</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C41" t="inlineStr">
@@ -1475,8 +1481,8 @@
           <t>SYRUP WIRE RACK</t>
         </is>
       </c>
-      <c r="F41" s="5" t="n"/>
-      <c r="G41" s="6" t="n"/>
+      <c r="F41" s="7" t="n"/>
+      <c r="G41" s="8" t="n"/>
       <c r="S41" t="inlineStr">
         <is>
           <t>BY VENDOR</t>
@@ -1484,10 +1490,10 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="n">
+      <c r="A42" s="5" t="n">
         <v>33</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B42" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C42" t="inlineStr">
@@ -1501,10 +1507,10 @@
       <c r="E42" t="n">
         <v>1</v>
       </c>
-      <c r="F42" s="5" t="n">
+      <c r="F42" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="G42" s="6">
+      <c r="G42" s="8">
         <f>IF(E42&gt;1,(1.732*D42*F42)/1000,(D42*F42)/1000)</f>
         <v/>
       </c>
@@ -1515,10 +1521,10 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="n">
+      <c r="A43" s="5" t="n">
         <v>34</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C43" t="inlineStr">
@@ -1526,8 +1532,8 @@
           <t>ACRYLIC SURROUND</t>
         </is>
       </c>
-      <c r="F43" s="5" t="n"/>
-      <c r="G43" s="6" t="n"/>
+      <c r="F43" s="7" t="n"/>
+      <c r="G43" s="8" t="n"/>
       <c r="S43" t="inlineStr">
         <is>
           <t>MILLWORK / BY GENERAL CONTRACTOR</t>
@@ -1535,10 +1541,10 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="n">
+      <c r="A44" s="5" t="n">
         <v>35</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -1548,14 +1554,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F44" s="5" t="n"/>
-      <c r="G44" s="6" t="n"/>
+      <c r="F44" s="7" t="n"/>
+      <c r="G44" s="8" t="n"/>
     </row>
     <row r="45">
-      <c r="A45" t="n">
+      <c r="A45" s="5" t="n">
         <v>36</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B45" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C45" t="inlineStr">
@@ -1563,8 +1569,8 @@
           <t>SAUCE WIRE RACK</t>
         </is>
       </c>
-      <c r="F45" s="5" t="n"/>
-      <c r="G45" s="6" t="n"/>
+      <c r="F45" s="7" t="n"/>
+      <c r="G45" s="8" t="n"/>
       <c r="S45" t="inlineStr">
         <is>
           <t>BY VENDOR</t>
@@ -1572,10 +1578,10 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="n">
+      <c r="A46" s="5" t="n">
         <v>37</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C46" t="inlineStr">
@@ -1589,10 +1595,10 @@
       <c r="E46" t="n">
         <v>3</v>
       </c>
-      <c r="F46" s="5" t="n">
+      <c r="F46" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="G46" s="6">
+      <c r="G46" s="8">
         <f>IF(E46&gt;1,(1.732*D46*F46)/1000,(D46*F46)/1000)</f>
         <v/>
       </c>
@@ -1608,10 +1614,10 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="n">
+      <c r="A47" s="5" t="n">
         <v>38</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B47" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C47" t="inlineStr">
@@ -1619,8 +1625,8 @@
           <t>DRIP TROUGH</t>
         </is>
       </c>
-      <c r="F47" s="5" t="n"/>
-      <c r="G47" s="6" t="n"/>
+      <c r="F47" s="7" t="n"/>
+      <c r="G47" s="8" t="n"/>
       <c r="H47" t="inlineStr">
         <is>
           <t>1/2"</t>
@@ -1633,10 +1639,10 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="n">
+      <c r="A48" s="5" t="n">
         <v>39</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -1646,14 +1652,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F48" s="5" t="n"/>
-      <c r="G48" s="6" t="n"/>
+      <c r="F48" s="7" t="n"/>
+      <c r="G48" s="8" t="n"/>
     </row>
     <row r="49">
-      <c r="A49" t="n">
+      <c r="A49" s="5" t="n">
         <v>40</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -1663,14 +1669,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F49" s="5" t="n"/>
-      <c r="G49" s="6" t="n"/>
+      <c r="F49" s="7" t="n"/>
+      <c r="G49" s="8" t="n"/>
     </row>
     <row r="50">
-      <c r="A50" t="n">
+      <c r="A50" s="5" t="n">
         <v>41</v>
       </c>
-      <c r="B50" t="n">
+      <c r="B50" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C50" t="inlineStr">
@@ -1678,8 +1684,8 @@
           <t>WATER STATION</t>
         </is>
       </c>
-      <c r="F50" s="5" t="n"/>
-      <c r="G50" s="6" t="n"/>
+      <c r="F50" s="7" t="n"/>
+      <c r="G50" s="8" t="n"/>
       <c r="H50" t="inlineStr">
         <is>
           <t>1/2"</t>
@@ -1692,10 +1698,10 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="n">
+      <c r="A51" s="5" t="n">
         <v>42</v>
       </c>
-      <c r="B51" t="n">
+      <c r="B51" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C51" t="inlineStr">
@@ -1703,8 +1709,8 @@
           <t>DIPPERWELL</t>
         </is>
       </c>
-      <c r="F51" s="5" t="n"/>
-      <c r="G51" s="6" t="n"/>
+      <c r="F51" s="7" t="n"/>
+      <c r="G51" s="8" t="n"/>
       <c r="H51" t="inlineStr">
         <is>
           <t>1/2"</t>
@@ -1717,10 +1723,10 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="n">
+      <c r="A52" s="5" t="n">
         <v>43</v>
       </c>
-      <c r="B52" t="n">
+      <c r="B52" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C52" t="inlineStr">
@@ -1734,10 +1740,10 @@
       <c r="E52" t="n">
         <v>1</v>
       </c>
-      <c r="F52" s="5" t="n">
+      <c r="F52" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="G52" s="6">
+      <c r="G52" s="8">
         <f>IF(E52&gt;1,(1.732*D52*F52)/1000,(D52*F52)/1000)</f>
         <v/>
       </c>
@@ -1748,10 +1754,10 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="n">
+      <c r="A53" s="5" t="n">
         <v>44</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -1761,14 +1767,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F53" s="5" t="n"/>
-      <c r="G53" s="6" t="n"/>
+      <c r="F53" s="7" t="n"/>
+      <c r="G53" s="8" t="n"/>
     </row>
     <row r="54">
-      <c r="A54" t="n">
+      <c r="A54" s="5" t="n">
         <v>45</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -1778,14 +1784,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F54" s="5" t="n"/>
-      <c r="G54" s="6" t="n"/>
+      <c r="F54" s="7" t="n"/>
+      <c r="G54" s="8" t="n"/>
     </row>
     <row r="55">
-      <c r="A55" t="n">
+      <c r="A55" s="5" t="n">
         <v>46</v>
       </c>
-      <c r="B55" t="n">
+      <c r="B55" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C55" t="inlineStr">
@@ -1799,10 +1805,10 @@
       <c r="E55" t="n">
         <v>1</v>
       </c>
-      <c r="F55" s="5" t="n">
+      <c r="F55" s="7" t="n">
         <v>4.6</v>
       </c>
-      <c r="G55" s="6">
+      <c r="G55" s="8">
         <f>IF(E55&gt;1,(1.732*D55*F55)/1000,(D55*F55)/1000)</f>
         <v/>
       </c>
@@ -1813,10 +1819,10 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="n">
+      <c r="A56" s="5" t="n">
         <v>47</v>
       </c>
-      <c r="B56" t="n">
+      <c r="B56" s="6" t="n">
         <v>2</v>
       </c>
       <c r="C56" t="inlineStr">
@@ -1830,10 +1836,10 @@
       <c r="E56" t="n">
         <v>1</v>
       </c>
-      <c r="F56" s="5" t="n">
+      <c r="F56" s="7" t="n">
         <v>3.1</v>
       </c>
-      <c r="G56" s="6">
+      <c r="G56" s="8">
         <f>IF(E56&gt;1,(1.732*D56*F56)/1000,(D56*F56)/1000)</f>
         <v/>
       </c>
@@ -1844,10 +1850,10 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="n">
+      <c r="A57" s="5" t="n">
         <v>48</v>
       </c>
-      <c r="B57" t="n">
+      <c r="B57" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C57" t="inlineStr">
@@ -1861,19 +1867,19 @@
       <c r="E57" t="n">
         <v>1</v>
       </c>
-      <c r="F57" s="5" t="n">
+      <c r="F57" s="7" t="n">
         <v>16.9</v>
       </c>
-      <c r="G57" s="6">
+      <c r="G57" s="8">
         <f>IF(E57&gt;1,(1.732*D57*F57)/1000,(D57*F57)/1000)</f>
         <v/>
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="n">
+      <c r="A58" s="5" t="n">
         <v>49</v>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B58" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -1883,14 +1889,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F58" s="5" t="n"/>
-      <c r="G58" s="6" t="n"/>
+      <c r="F58" s="7" t="n"/>
+      <c r="G58" s="8" t="n"/>
     </row>
     <row r="59">
-      <c r="A59" t="n">
+      <c r="A59" s="5" t="n">
         <v>50</v>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B59" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -1900,14 +1906,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F59" s="5" t="n"/>
-      <c r="G59" s="6" t="n"/>
+      <c r="F59" s="7" t="n"/>
+      <c r="G59" s="8" t="n"/>
     </row>
     <row r="60">
-      <c r="A60" t="n">
+      <c r="A60" s="5" t="n">
         <v>51</v>
       </c>
-      <c r="B60" t="n">
+      <c r="B60" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C60" t="inlineStr">
@@ -1915,8 +1921,8 @@
           <t>TRASH CHUTE</t>
         </is>
       </c>
-      <c r="F60" s="5" t="n"/>
-      <c r="G60" s="6" t="n"/>
+      <c r="F60" s="7" t="n"/>
+      <c r="G60" s="8" t="n"/>
       <c r="S60" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #63</t>
@@ -1924,10 +1930,10 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="n">
+      <c r="A61" s="5" t="n">
         <v>52</v>
       </c>
-      <c r="B61" t="n">
+      <c r="B61" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C61" t="inlineStr">
@@ -1935,8 +1941,8 @@
           <t>TRASH RECEPTACLE</t>
         </is>
       </c>
-      <c r="F61" s="5" t="n"/>
-      <c r="G61" s="6" t="n"/>
+      <c r="F61" s="7" t="n"/>
+      <c r="G61" s="8" t="n"/>
       <c r="S61" t="inlineStr">
         <is>
           <t>SLIM JIM</t>
@@ -1944,10 +1950,10 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="n">
+      <c r="A62" s="5" t="n">
         <v>53</v>
       </c>
-      <c r="B62" t="n">
+      <c r="B62" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C62" t="inlineStr">
@@ -1955,14 +1961,14 @@
           <t>PAPER NAPKIN DISPENSER</t>
         </is>
       </c>
-      <c r="F62" s="5" t="n"/>
-      <c r="G62" s="6" t="n"/>
+      <c r="F62" s="7" t="n"/>
+      <c r="G62" s="8" t="n"/>
     </row>
     <row r="63">
-      <c r="A63" t="n">
+      <c r="A63" s="5" t="n">
         <v>54</v>
       </c>
-      <c r="B63" t="n">
+      <c r="B63" s="6" t="n">
         <v>3</v>
       </c>
       <c r="C63" t="inlineStr">
@@ -1970,14 +1976,14 @@
           <t>AIRPOT</t>
         </is>
       </c>
-      <c r="F63" s="5" t="n"/>
-      <c r="G63" s="6" t="n"/>
+      <c r="F63" s="7" t="n"/>
+      <c r="G63" s="8" t="n"/>
     </row>
     <row r="64">
-      <c r="A64" t="n">
+      <c r="A64" s="5" t="n">
         <v>55</v>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B64" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -1987,14 +1993,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F64" s="5" t="n"/>
-      <c r="G64" s="6" t="n"/>
+      <c r="F64" s="7" t="n"/>
+      <c r="G64" s="8" t="n"/>
     </row>
     <row r="65">
-      <c r="A65" t="n">
+      <c r="A65" s="5" t="n">
         <v>56</v>
       </c>
-      <c r="B65" t="n">
+      <c r="B65" s="6" t="n">
         <v>2</v>
       </c>
       <c r="C65" t="inlineStr">
@@ -2002,14 +2008,14 @@
           <t>CONDIMENT CADDY</t>
         </is>
       </c>
-      <c r="F65" s="5" t="n"/>
-      <c r="G65" s="6" t="n"/>
+      <c r="F65" s="7" t="n"/>
+      <c r="G65" s="8" t="n"/>
     </row>
     <row r="66">
-      <c r="A66" t="n">
+      <c r="A66" s="5" t="n">
         <v>57</v>
       </c>
-      <c r="B66" t="n">
+      <c r="B66" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C66" t="inlineStr">
@@ -2017,8 +2023,8 @@
           <t>TRASH RECEPTACLE</t>
         </is>
       </c>
-      <c r="F66" s="5" t="n"/>
-      <c r="G66" s="6" t="n"/>
+      <c r="F66" s="7" t="n"/>
+      <c r="G66" s="8" t="n"/>
       <c r="S66" t="inlineStr">
         <is>
           <t>SLIM JIM</t>
@@ -2026,10 +2032,10 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="n">
+      <c r="A67" s="5" t="n">
         <v>58</v>
       </c>
-      <c r="B67" t="n">
+      <c r="B67" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C67" t="inlineStr">
@@ -2037,8 +2043,8 @@
           <t>TRASH CHUTE</t>
         </is>
       </c>
-      <c r="F67" s="5" t="n"/>
-      <c r="G67" s="6" t="n"/>
+      <c r="F67" s="7" t="n"/>
+      <c r="G67" s="8" t="n"/>
       <c r="S67" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #63</t>
@@ -2046,10 +2052,10 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="n">
+      <c r="A68" s="5" t="n">
         <v>59</v>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B68" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -2059,14 +2065,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F68" s="5" t="n"/>
-      <c r="G68" s="6" t="n"/>
+      <c r="F68" s="7" t="n"/>
+      <c r="G68" s="8" t="n"/>
     </row>
     <row r="69">
-      <c r="A69" t="n">
+      <c r="A69" s="5" t="n">
         <v>60</v>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B69" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -2076,14 +2082,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F69" s="5" t="n"/>
-      <c r="G69" s="6" t="n"/>
+      <c r="F69" s="7" t="n"/>
+      <c r="G69" s="8" t="n"/>
     </row>
     <row r="70">
-      <c r="A70" t="n">
+      <c r="A70" s="5" t="n">
         <v>61</v>
       </c>
-      <c r="B70" t="n">
+      <c r="B70" s="6" t="n">
         <v>2</v>
       </c>
       <c r="C70" t="inlineStr">
@@ -2097,10 +2103,10 @@
       <c r="E70" t="n">
         <v>1</v>
       </c>
-      <c r="F70" s="5" t="n">
+      <c r="F70" s="7" t="n">
         <v>40</v>
       </c>
-      <c r="G70" s="6">
+      <c r="G70" s="8">
         <f>IF(E70&gt;1,(1.732*D70*F70)/1000,(D70*F70)/1000)</f>
         <v/>
       </c>
@@ -2111,10 +2117,10 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="n">
+      <c r="A71" s="5" t="n">
         <v>62</v>
       </c>
-      <c r="B71" t="n">
+      <c r="B71" s="6" t="n">
         <v>2</v>
       </c>
       <c r="C71" t="inlineStr">
@@ -2128,10 +2134,10 @@
       <c r="E71" t="n">
         <v>1</v>
       </c>
-      <c r="F71" s="5" t="n">
+      <c r="F71" s="7" t="n">
         <v>10</v>
       </c>
-      <c r="G71" s="6">
+      <c r="G71" s="8">
         <f>IF(E71&gt;1,(1.732*D71*F71)/1000,(D71*F71)/1000)</f>
         <v/>
       </c>
@@ -2142,10 +2148,10 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="n">
+      <c r="A72" s="5" t="n">
         <v>63</v>
       </c>
-      <c r="B72" t="n">
+      <c r="B72" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C72" t="inlineStr">
@@ -2159,10 +2165,10 @@
       <c r="E72" t="n">
         <v>1</v>
       </c>
-      <c r="F72" s="5" t="n">
+      <c r="F72" s="7" t="n">
         <v>20</v>
       </c>
-      <c r="G72" s="6">
+      <c r="G72" s="8">
         <f>IF(E72&gt;1,(1.732*D72*F72)/1000,(D72*F72)/1000)</f>
         <v/>
       </c>
@@ -2173,10 +2179,10 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="n">
+      <c r="A73" s="5" t="n">
         <v>64</v>
       </c>
-      <c r="B73" t="n">
+      <c r="B73" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C73" t="inlineStr">
@@ -2184,8 +2190,8 @@
           <t>SNACK SHELVING</t>
         </is>
       </c>
-      <c r="F73" s="5" t="n"/>
-      <c r="G73" s="6" t="n"/>
+      <c r="F73" s="7" t="n"/>
+      <c r="G73" s="8" t="n"/>
       <c r="S73" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
@@ -2193,10 +2199,10 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="n">
+      <c r="A74" s="5" t="n">
         <v>65</v>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="B74" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -2206,14 +2212,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F74" s="5" t="n"/>
-      <c r="G74" s="6" t="n"/>
+      <c r="F74" s="7" t="n"/>
+      <c r="G74" s="8" t="n"/>
     </row>
     <row r="75">
-      <c r="A75" t="n">
+      <c r="A75" s="5" t="n">
         <v>66</v>
       </c>
-      <c r="B75" t="n">
+      <c r="B75" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C75" t="inlineStr">
@@ -2221,14 +2227,14 @@
           <t>ROBOBURGER MACHINE</t>
         </is>
       </c>
-      <c r="F75" s="5" t="n"/>
-      <c r="G75" s="6" t="n"/>
+      <c r="F75" s="7" t="n"/>
+      <c r="G75" s="8" t="n"/>
     </row>
     <row r="76">
-      <c r="A76" t="n">
+      <c r="A76" s="5" t="n">
         <v>67</v>
       </c>
-      <c r="B76" t="n">
+      <c r="B76" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C76" t="inlineStr">
@@ -2242,19 +2248,19 @@
       <c r="E76" t="n">
         <v>1</v>
       </c>
-      <c r="F76" s="5" t="n">
+      <c r="F76" s="7" t="n">
         <v>25</v>
       </c>
-      <c r="G76" s="6">
+      <c r="G76" s="8">
         <f>IF(E76&gt;1,(1.732*D76*F76)/1000,(D76*F76)/1000)</f>
         <v/>
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="n">
+      <c r="A77" s="5" t="n">
         <v>68</v>
       </c>
-      <c r="B77" t="n">
+      <c r="B77" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C77" t="inlineStr">
@@ -2262,25 +2268,25 @@
           <t>HOT FOOD VENDING MACHINE</t>
         </is>
       </c>
-      <c r="D77" s="7" t="n">
+      <c r="D77" s="9" t="n">
         <v>260</v>
       </c>
       <c r="E77" t="n">
         <v>1</v>
       </c>
-      <c r="F77" s="5" t="n">
+      <c r="F77" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="G77" s="6">
+      <c r="G77" s="8">
         <f>IF(E77&gt;1,(1.732*D77*F77)/1000,(D77*F77)/1000)</f>
         <v/>
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="n">
+      <c r="A78" s="5" t="n">
         <v>69</v>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="B78" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -2290,14 +2296,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F78" s="5" t="n"/>
-      <c r="G78" s="6" t="n"/>
+      <c r="F78" s="7" t="n"/>
+      <c r="G78" s="8" t="n"/>
     </row>
     <row r="79">
-      <c r="A79" t="n">
+      <c r="A79" s="5" t="n">
         <v>71</v>
       </c>
-      <c r="B79" t="n">
+      <c r="B79" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C79" t="inlineStr">
@@ -2305,25 +2311,25 @@
           <t>PIZZA VENDING MACHINE</t>
         </is>
       </c>
-      <c r="D79" s="7" t="n">
+      <c r="D79" s="9" t="n">
         <v>230</v>
       </c>
       <c r="E79" t="n">
         <v>3</v>
       </c>
-      <c r="F79" s="5" t="n">
+      <c r="F79" s="7" t="n">
         <v>32</v>
       </c>
-      <c r="G79" s="6">
+      <c r="G79" s="8">
         <f>IF(E79&gt;1,(1.732*D79*F79)/1000,(D79*F79)/1000)</f>
         <v/>
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="n">
+      <c r="A80" s="5" t="n">
         <v>72</v>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="B80" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -2333,14 +2339,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F80" s="5" t="n"/>
-      <c r="G80" s="6" t="n"/>
+      <c r="F80" s="7" t="n"/>
+      <c r="G80" s="8" t="n"/>
     </row>
     <row r="81">
-      <c r="A81" t="n">
+      <c r="A81" s="5" t="n">
         <v>73</v>
       </c>
-      <c r="B81" t="inlineStr">
+      <c r="B81" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -2350,14 +2356,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F81" s="5" t="n"/>
-      <c r="G81" s="6" t="n"/>
+      <c r="F81" s="7" t="n"/>
+      <c r="G81" s="8" t="n"/>
     </row>
     <row r="82">
-      <c r="A82" t="n">
+      <c r="A82" s="5" t="n">
         <v>74</v>
       </c>
-      <c r="B82" t="inlineStr">
+      <c r="B82" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -2367,16 +2373,16 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F82" s="5" t="n"/>
-      <c r="G82" s="6" t="n"/>
+      <c r="F82" s="7" t="n"/>
+      <c r="G82" s="8" t="n"/>
     </row>
     <row r="83">
-      <c r="A83" t="inlineStr">
+      <c r="A83" s="5" t="inlineStr">
         <is>
           <t>75-80</t>
         </is>
       </c>
-      <c r="B83" t="inlineStr">
+      <c r="B83" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -2386,8 +2392,8 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F83" s="5" t="n"/>
-      <c r="G83" s="6" t="n"/>
+      <c r="F83" s="7" t="n"/>
+      <c r="G83" s="8" t="n"/>
     </row>
     <row r="84">
       <c r="A84" s="3" t="inlineStr">
@@ -2415,10 +2421,10 @@
       <c r="S84" s="4" t="n"/>
     </row>
     <row r="85">
-      <c r="A85" t="n">
+      <c r="A85" s="5" t="n">
         <v>81</v>
       </c>
-      <c r="B85" t="n">
+      <c r="B85" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C85" t="inlineStr">
@@ -2426,8 +2432,8 @@
           <t>THREE COMPARTMENT SINK</t>
         </is>
       </c>
-      <c r="F85" s="5" t="n"/>
-      <c r="G85" s="6" t="n"/>
+      <c r="F85" s="7" t="n"/>
+      <c r="G85" s="8" t="n"/>
       <c r="H85" t="inlineStr">
         <is>
           <t>(2)3/4"</t>
@@ -2453,10 +2459,10 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="n">
+      <c r="A86" s="5" t="n">
         <v>82</v>
       </c>
-      <c r="B86" t="n">
+      <c r="B86" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C86" t="inlineStr">
@@ -2464,8 +2470,8 @@
           <t>POT SHELF</t>
         </is>
       </c>
-      <c r="F86" s="5" t="n"/>
-      <c r="G86" s="6" t="n"/>
+      <c r="F86" s="7" t="n"/>
+      <c r="G86" s="8" t="n"/>
       <c r="S86" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
@@ -2473,10 +2479,10 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="n">
+      <c r="A87" s="5" t="n">
         <v>83</v>
       </c>
-      <c r="B87" t="n">
+      <c r="B87" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C87" t="inlineStr">
@@ -2490,10 +2496,10 @@
       <c r="E87" t="n">
         <v>1</v>
       </c>
-      <c r="F87" s="5" t="n">
+      <c r="F87" s="7" t="n">
         <v>3.7</v>
       </c>
-      <c r="G87" s="6">
+      <c r="G87" s="8">
         <f>IF(E87&gt;1,(1.732*D87*F87)/1000,(D87*F87)/1000)</f>
         <v/>
       </c>
@@ -2504,10 +2510,10 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="n">
+      <c r="A88" s="5" t="n">
         <v>84</v>
       </c>
-      <c r="B88" t="n">
+      <c r="B88" s="6" t="n">
         <v>2</v>
       </c>
       <c r="C88" t="inlineStr">
@@ -2521,10 +2527,10 @@
       <c r="E88" t="n">
         <v>1</v>
       </c>
-      <c r="F88" s="5" t="n">
+      <c r="F88" s="7" t="n">
         <v>10.8</v>
       </c>
-      <c r="G88" s="6">
+      <c r="G88" s="8">
         <f>IF(E88&gt;1,(1.732*D88*F88)/1000,(D88*F88)/1000)</f>
         <v/>
       </c>
@@ -2535,10 +2541,10 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="n">
+      <c r="A89" s="5" t="n">
         <v>85</v>
       </c>
-      <c r="B89" t="inlineStr">
+      <c r="B89" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -2548,14 +2554,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F89" s="5" t="n"/>
-      <c r="G89" s="6" t="n"/>
+      <c r="F89" s="7" t="n"/>
+      <c r="G89" s="8" t="n"/>
     </row>
     <row r="90">
-      <c r="A90" t="n">
+      <c r="A90" s="5" t="n">
         <v>86</v>
       </c>
-      <c r="B90" t="n">
+      <c r="B90" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C90" t="inlineStr">
@@ -2563,14 +2569,14 @@
           <t>SOILED DISH TABLE</t>
         </is>
       </c>
-      <c r="F90" s="5" t="n"/>
-      <c r="G90" s="6" t="n"/>
+      <c r="F90" s="7" t="n"/>
+      <c r="G90" s="8" t="n"/>
     </row>
     <row r="91">
-      <c r="A91" t="n">
+      <c r="A91" s="5" t="n">
         <v>87</v>
       </c>
-      <c r="B91" t="n">
+      <c r="B91" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C91" t="inlineStr">
@@ -2584,10 +2590,10 @@
       <c r="E91" t="n">
         <v>1</v>
       </c>
-      <c r="F91" s="5" t="n">
+      <c r="F91" s="7" t="n">
         <v>12</v>
       </c>
-      <c r="G91" s="6">
+      <c r="G91" s="8">
         <f>IF(E91&gt;1,(1.732*D91*F91)/1000,(D91*F91)/1000)</f>
         <v/>
       </c>
@@ -2603,10 +2609,10 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="n">
+      <c r="A92" s="5" t="n">
         <v>88</v>
       </c>
-      <c r="B92" t="n">
+      <c r="B92" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C92" t="inlineStr">
@@ -2614,8 +2620,8 @@
           <t>HAND SINK</t>
         </is>
       </c>
-      <c r="F92" s="5" t="n"/>
-      <c r="G92" s="6" t="n"/>
+      <c r="F92" s="7" t="n"/>
+      <c r="G92" s="8" t="n"/>
       <c r="H92" t="inlineStr">
         <is>
           <t>1/2"</t>
@@ -2641,10 +2647,10 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="n">
+      <c r="A93" s="5" t="n">
         <v>89</v>
       </c>
-      <c r="B93" t="inlineStr">
+      <c r="B93" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -2654,14 +2660,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F93" s="5" t="n"/>
-      <c r="G93" s="6" t="n"/>
+      <c r="F93" s="7" t="n"/>
+      <c r="G93" s="8" t="n"/>
     </row>
     <row r="94">
-      <c r="A94" t="n">
+      <c r="A94" s="5" t="n">
         <v>90</v>
       </c>
-      <c r="B94" t="inlineStr">
+      <c r="B94" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -2671,14 +2677,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F94" s="5" t="n"/>
-      <c r="G94" s="6" t="n"/>
+      <c r="F94" s="7" t="n"/>
+      <c r="G94" s="8" t="n"/>
     </row>
     <row r="95">
-      <c r="A95" t="n">
+      <c r="A95" s="5" t="n">
         <v>91</v>
       </c>
-      <c r="B95" t="n">
+      <c r="B95" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C95" t="inlineStr">
@@ -2686,8 +2692,8 @@
           <t>TRASH RECEPTACLE</t>
         </is>
       </c>
-      <c r="F95" s="5" t="n"/>
-      <c r="G95" s="6" t="n"/>
+      <c r="F95" s="7" t="n"/>
+      <c r="G95" s="8" t="n"/>
       <c r="S95" t="inlineStr">
         <is>
           <t>SLIM JIM</t>
@@ -2695,10 +2701,10 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="n">
+      <c r="A96" s="5" t="n">
         <v>92</v>
       </c>
-      <c r="B96" t="inlineStr">
+      <c r="B96" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -2708,14 +2714,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F96" s="5" t="n"/>
-      <c r="G96" s="6" t="n"/>
+      <c r="F96" s="7" t="n"/>
+      <c r="G96" s="8" t="n"/>
     </row>
     <row r="97">
-      <c r="A97" t="n">
+      <c r="A97" s="5" t="n">
         <v>93</v>
       </c>
-      <c r="B97" t="inlineStr">
+      <c r="B97" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -2725,14 +2731,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F97" s="5" t="n"/>
-      <c r="G97" s="6" t="n"/>
+      <c r="F97" s="7" t="n"/>
+      <c r="G97" s="8" t="n"/>
     </row>
     <row r="98">
-      <c r="A98" t="n">
+      <c r="A98" s="5" t="n">
         <v>94</v>
       </c>
-      <c r="B98" t="inlineStr">
+      <c r="B98" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -2742,16 +2748,16 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F98" s="5" t="n"/>
-      <c r="G98" s="6" t="n"/>
+      <c r="F98" s="7" t="n"/>
+      <c r="G98" s="8" t="n"/>
     </row>
     <row r="99">
-      <c r="A99" t="inlineStr">
+      <c r="A99" s="5" t="inlineStr">
         <is>
           <t>95-100</t>
         </is>
       </c>
-      <c r="B99" t="inlineStr">
+      <c r="B99" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -2761,39 +2767,39 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F99" s="5" t="n"/>
-      <c r="G99" s="6" t="n"/>
+      <c r="F99" s="7" t="n"/>
+      <c r="G99" s="8" t="n"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr"/>
     </row>
     <row r="101">
-      <c r="A101" s="8" t="inlineStr">
+      <c r="A101" s="10" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="G101" s="9">
+      <c r="G101" s="11">
         <f>SUM(G7:G100)</f>
         <v/>
       </c>
-      <c r="J101" s="9">
+      <c r="J101" s="11">
         <f>SUM(J7:J100)</f>
         <v/>
       </c>
-      <c r="M101" s="9">
+      <c r="M101" s="11">
         <f>SUM(M7:M100)</f>
         <v/>
       </c>
-      <c r="N101" s="9">
+      <c r="N101" s="11">
         <f>SUM(N7:N100)</f>
         <v/>
       </c>
-      <c r="O101" s="9">
+      <c r="O101" s="11">
         <f>SUM(O7:O100)</f>
         <v/>
       </c>
-      <c r="P101" s="9">
+      <c r="P101" s="11">
         <f>SUM(P7:P100)</f>
         <v/>
       </c>

--- a/Bulk Loads/0923/_PRELIMINARY UTILITY EXPORT - FS_formatted.xlsx
+++ b/Bulk Loads/0923/_PRELIMINARY UTILITY EXPORT - FS_formatted.xlsx
@@ -87,9 +87,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
@@ -520,7 +520,7 @@
     <row r="4" ht="27" customHeight="1">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>August 13, 2024</t>
+          <t>August 21, 2024</t>
         </is>
       </c>
     </row>
@@ -662,16 +662,16 @@
           <t>BACK SERVING COUNTER WITH SINK</t>
         </is>
       </c>
-      <c r="D9" t="n">
+      <c r="D9" s="7" t="n">
         <v>120</v>
       </c>
       <c r="E9" t="n">
         <v>1</v>
       </c>
-      <c r="F9" s="7" t="n">
+      <c r="F9" s="8" t="n">
         <v>40</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="9">
         <f>IF(E9&gt;1,(1.732*D9*F9)/1000,(D9*F9)/1000)</f>
         <v/>
       </c>
@@ -711,16 +711,16 @@
           <t>BLENDER</t>
         </is>
       </c>
-      <c r="D10" t="n">
+      <c r="D10" s="7" t="n">
         <v>120</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
       </c>
-      <c r="F10" s="7" t="n">
+      <c r="F10" s="8" t="n">
         <v>30</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10" s="9">
         <f>IF(E10&gt;1,(1.732*D10*F10)/1000,(D10*F10)/1000)</f>
         <v/>
       </c>
@@ -742,16 +742,16 @@
           <t>UNDERCOUNTER DISH MACHINE</t>
         </is>
       </c>
-      <c r="D11" t="n">
+      <c r="D11" s="7" t="n">
         <v>120</v>
       </c>
       <c r="E11" t="n">
         <v>1</v>
       </c>
-      <c r="F11" s="7" t="n">
+      <c r="F11" s="8" t="n">
         <v>23.9</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="9">
         <f>IF(E11&gt;1,(1.732*D11*F11)/1000,(D11*F11)/1000)</f>
         <v/>
       </c>
@@ -781,8 +781,8 @@
           <t>DROP-IN ICE BIN</t>
         </is>
       </c>
-      <c r="F12" s="7" t="n"/>
-      <c r="G12" s="8" t="n"/>
+      <c r="F12" s="8" t="n"/>
+      <c r="G12" s="9" t="n"/>
       <c r="K12" t="inlineStr">
         <is>
           <t>1"</t>
@@ -801,8 +801,8 @@
           <t>HAND SINK</t>
         </is>
       </c>
-      <c r="F13" s="7" t="n"/>
-      <c r="G13" s="8" t="n"/>
+      <c r="F13" s="8" t="n"/>
+      <c r="G13" s="9" t="n"/>
       <c r="H13" t="inlineStr">
         <is>
           <t>1/2"</t>
@@ -839,16 +839,16 @@
           <t>DRAFT BEER REFRIGERATOR</t>
         </is>
       </c>
-      <c r="D14" t="n">
+      <c r="D14" s="7" t="n">
         <v>120</v>
       </c>
       <c r="E14" t="n">
         <v>1</v>
       </c>
-      <c r="F14" s="7" t="n">
+      <c r="F14" s="8" t="n">
         <v>1.4</v>
       </c>
-      <c r="G14" s="8">
+      <c r="G14" s="9">
         <f>IF(E14&gt;1,(1.732*D14*F14)/1000,(D14*F14)/1000)</f>
         <v/>
       </c>
@@ -870,16 +870,16 @@
           <t>COFFEE GRINDER</t>
         </is>
       </c>
-      <c r="D15" t="n">
+      <c r="D15" s="7" t="n">
         <v>120</v>
       </c>
       <c r="E15" t="n">
         <v>1</v>
       </c>
-      <c r="F15" s="7" t="n">
+      <c r="F15" s="8" t="n">
         <v>11</v>
       </c>
-      <c r="G15" s="8">
+      <c r="G15" s="9">
         <f>IF(E15&gt;1,(1.732*D15*F15)/1000,(D15*F15)/1000)</f>
         <v/>
       </c>
@@ -896,16 +896,16 @@
           <t>UNDERCOUNTER ICE MAKER</t>
         </is>
       </c>
-      <c r="D16" t="n">
+      <c r="D16" s="7" t="n">
         <v>208</v>
       </c>
       <c r="E16" t="n">
         <v>3</v>
       </c>
-      <c r="F16" s="7" t="n">
+      <c r="F16" s="8" t="n">
         <v>15</v>
       </c>
-      <c r="G16" s="8">
+      <c r="G16" s="9">
         <f>IF(E16&gt;1,(1.732*D16*F16)/1000,(D16*F16)/1000)</f>
         <v/>
       </c>
@@ -932,8 +932,8 @@
           <t>WATER FILTRATION SYSTEM</t>
         </is>
       </c>
-      <c r="F17" s="7" t="n"/>
-      <c r="G17" s="8" t="n"/>
+      <c r="F17" s="8" t="n"/>
+      <c r="G17" s="9" t="n"/>
       <c r="H17" t="inlineStr">
         <is>
           <t>3/8"</t>
@@ -959,8 +959,8 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F18" s="7" t="n"/>
-      <c r="G18" s="8" t="n"/>
+      <c r="F18" s="8" t="n"/>
+      <c r="G18" s="9" t="n"/>
     </row>
     <row r="19">
       <c r="A19" s="5" t="n">
@@ -974,16 +974,16 @@
           <t>COFFEE BREWER</t>
         </is>
       </c>
-      <c r="D19" t="n">
+      <c r="D19" s="7" t="n">
         <v>208</v>
       </c>
       <c r="E19" t="n">
         <v>1</v>
       </c>
-      <c r="F19" s="7" t="n">
+      <c r="F19" s="8" t="n">
         <v>19.7</v>
       </c>
-      <c r="G19" s="8">
+      <c r="G19" s="9">
         <f>IF(E19&gt;1,(1.732*D19*F19)/1000,(D19*F19)/1000)</f>
         <v/>
       </c>
@@ -1008,16 +1008,16 @@
           <t>UNDERCOUNTER REFRIGERATOR</t>
         </is>
       </c>
-      <c r="D20" t="n">
+      <c r="D20" s="7" t="n">
         <v>120</v>
       </c>
       <c r="E20" t="n">
         <v>1</v>
       </c>
-      <c r="F20" s="7" t="n">
+      <c r="F20" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="G20" s="8">
+      <c r="G20" s="9">
         <f>IF(E20&gt;1,(1.732*D20*F20)/1000,(D20*F20)/1000)</f>
         <v/>
       </c>
@@ -1039,8 +1039,8 @@
           <t>AIRPOT</t>
         </is>
       </c>
-      <c r="F21" s="7" t="n"/>
-      <c r="G21" s="8" t="n"/>
+      <c r="F21" s="8" t="n"/>
+      <c r="G21" s="9" t="n"/>
     </row>
     <row r="22">
       <c r="A22" s="5" t="n">
@@ -1054,8 +1054,8 @@
           <t>AIRPOT SERVING RACK</t>
         </is>
       </c>
-      <c r="F22" s="7" t="n"/>
-      <c r="G22" s="8" t="n"/>
+      <c r="F22" s="8" t="n"/>
+      <c r="G22" s="9" t="n"/>
     </row>
     <row r="23">
       <c r="A23" s="5" t="n">
@@ -1071,8 +1071,8 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F23" s="7" t="n"/>
-      <c r="G23" s="8" t="n"/>
+      <c r="F23" s="8" t="n"/>
+      <c r="G23" s="9" t="n"/>
     </row>
     <row r="24">
       <c r="A24" s="5" t="n">
@@ -1086,16 +1086,16 @@
           <t>COLD BREW AND COFFEE DISPENSER</t>
         </is>
       </c>
-      <c r="D24" t="n">
+      <c r="D24" s="7" t="n">
         <v>120</v>
       </c>
       <c r="E24" t="n">
         <v>1</v>
       </c>
-      <c r="F24" s="7" t="n">
+      <c r="F24" s="8" t="n">
         <v>6</v>
       </c>
-      <c r="G24" s="8">
+      <c r="G24" s="9">
         <f>IF(E24&gt;1,(1.732*D24*F24)/1000,(D24*F24)/1000)</f>
         <v/>
       </c>
@@ -1120,8 +1120,8 @@
           <t>ICED TEA DISPENSER</t>
         </is>
       </c>
-      <c r="F25" s="7" t="n"/>
-      <c r="G25" s="8" t="n"/>
+      <c r="F25" s="8" t="n"/>
+      <c r="G25" s="9" t="n"/>
     </row>
     <row r="26">
       <c r="A26" s="5" t="n">
@@ -1135,16 +1135,16 @@
           <t>UNDERCOUNTER REFRIGERATOR</t>
         </is>
       </c>
-      <c r="D26" t="n">
+      <c r="D26" s="7" t="n">
         <v>120</v>
       </c>
       <c r="E26" t="n">
         <v>1</v>
       </c>
-      <c r="F26" s="7" t="n">
+      <c r="F26" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="G26" s="8">
+      <c r="G26" s="9">
         <f>IF(E26&gt;1,(1.732*D26*F26)/1000,(D26*F26)/1000)</f>
         <v/>
       </c>
@@ -1168,8 +1168,8 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F27" s="7" t="n"/>
-      <c r="G27" s="8" t="n"/>
+      <c r="F27" s="8" t="n"/>
+      <c r="G27" s="9" t="n"/>
     </row>
     <row r="28">
       <c r="A28" s="5" t="n">
@@ -1185,8 +1185,8 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F28" s="7" t="n"/>
-      <c r="G28" s="8" t="n"/>
+      <c r="F28" s="8" t="n"/>
+      <c r="G28" s="9" t="n"/>
     </row>
     <row r="29">
       <c r="A29" s="5" t="n">
@@ -1200,16 +1200,16 @@
           <t>RAPID COOK OVEN</t>
         </is>
       </c>
-      <c r="D29" t="n">
+      <c r="D29" s="7" t="n">
         <v>208</v>
       </c>
       <c r="E29" t="n">
         <v>3</v>
       </c>
-      <c r="F29" s="7" t="n">
+      <c r="F29" s="8" t="n">
         <v>20</v>
       </c>
-      <c r="G29" s="8">
+      <c r="G29" s="9">
         <f>IF(E29&gt;1,(1.732*D29*F29)/1000,(D29*F29)/1000)</f>
         <v/>
       </c>
@@ -1226,16 +1226,16 @@
           <t>REFRIGERATED GRAB &amp; GO CASE</t>
         </is>
       </c>
-      <c r="D30" t="n">
+      <c r="D30" s="7" t="n">
         <v>120</v>
       </c>
       <c r="E30" t="n">
         <v>1</v>
       </c>
-      <c r="F30" s="7" t="n">
+      <c r="F30" s="8" t="n">
         <v>16</v>
       </c>
-      <c r="G30" s="8">
+      <c r="G30" s="9">
         <f>IF(E30&gt;1,(1.732*D30*F30)/1000,(D30*F30)/1000)</f>
         <v/>
       </c>
@@ -1257,16 +1257,16 @@
           <t>REFRIGERATED GRAB &amp; GO CASE</t>
         </is>
       </c>
-      <c r="D31" t="n">
+      <c r="D31" s="7" t="n">
         <v>120</v>
       </c>
       <c r="E31" t="n">
         <v>1</v>
       </c>
-      <c r="F31" s="7" t="n">
+      <c r="F31" s="8" t="n">
         <v>1.5</v>
       </c>
-      <c r="G31" s="8">
+      <c r="G31" s="9">
         <f>IF(E31&gt;1,(1.732*D31*F31)/1000,(D31*F31)/1000)</f>
         <v/>
       </c>
@@ -1288,8 +1288,8 @@
           <t>FRONT SERVING COUNTER</t>
         </is>
       </c>
-      <c r="F32" s="7" t="n"/>
-      <c r="G32" s="8" t="n"/>
+      <c r="F32" s="8" t="n"/>
+      <c r="G32" s="9" t="n"/>
       <c r="S32" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
@@ -1308,16 +1308,16 @@
           <t>POS SYSTEM</t>
         </is>
       </c>
-      <c r="D33" t="n">
+      <c r="D33" s="7" t="n">
         <v>120</v>
       </c>
       <c r="E33" t="n">
         <v>1</v>
       </c>
-      <c r="F33" s="7" t="n">
+      <c r="F33" s="8" t="n">
         <v>40</v>
       </c>
-      <c r="G33" s="8">
+      <c r="G33" s="9">
         <f>IF(E33&gt;1,(1.732*D33*F33)/1000,(D33*F33)/1000)</f>
         <v/>
       </c>
@@ -1341,8 +1341,8 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F34" s="7" t="n"/>
-      <c r="G34" s="8" t="n"/>
+      <c r="F34" s="8" t="n"/>
+      <c r="G34" s="9" t="n"/>
     </row>
     <row r="35">
       <c r="A35" s="5" t="n">
@@ -1356,16 +1356,16 @@
           <t>POS PRINTER</t>
         </is>
       </c>
-      <c r="D35" t="n">
+      <c r="D35" s="7" t="n">
         <v>120</v>
       </c>
       <c r="E35" t="n">
         <v>1</v>
       </c>
-      <c r="F35" s="7" t="n">
+      <c r="F35" s="8" t="n">
         <v>10</v>
       </c>
-      <c r="G35" s="8">
+      <c r="G35" s="9">
         <f>IF(E35&gt;1,(1.732*D35*F35)/1000,(D35*F35)/1000)</f>
         <v/>
       </c>
@@ -1387,8 +1387,8 @@
           <t>TEA WIRE RACK</t>
         </is>
       </c>
-      <c r="F36" s="7" t="n"/>
-      <c r="G36" s="8" t="n"/>
+      <c r="F36" s="8" t="n"/>
+      <c r="G36" s="9" t="n"/>
       <c r="S36" t="inlineStr">
         <is>
           <t>BY VENDOR</t>
@@ -1407,8 +1407,8 @@
           <t>TRASH RECEPTACLE</t>
         </is>
       </c>
-      <c r="F37" s="7" t="n"/>
-      <c r="G37" s="8" t="n"/>
+      <c r="F37" s="8" t="n"/>
+      <c r="G37" s="9" t="n"/>
       <c r="S37" t="inlineStr">
         <is>
           <t>SLIM JIM</t>
@@ -1429,8 +1429,8 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F38" s="7" t="n"/>
-      <c r="G38" s="8" t="n"/>
+      <c r="F38" s="8" t="n"/>
+      <c r="G38" s="9" t="n"/>
     </row>
     <row r="39">
       <c r="A39" s="5" t="n">
@@ -1446,8 +1446,8 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F39" s="7" t="n"/>
-      <c r="G39" s="8" t="n"/>
+      <c r="F39" s="8" t="n"/>
+      <c r="G39" s="9" t="n"/>
     </row>
     <row r="40">
       <c r="A40" s="5" t="n">
@@ -1461,8 +1461,8 @@
           <t>KNOCK BOX</t>
         </is>
       </c>
-      <c r="F40" s="7" t="n"/>
-      <c r="G40" s="8" t="n"/>
+      <c r="F40" s="8" t="n"/>
+      <c r="G40" s="9" t="n"/>
       <c r="S40" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #23</t>
@@ -1481,8 +1481,8 @@
           <t>SYRUP WIRE RACK</t>
         </is>
       </c>
-      <c r="F41" s="7" t="n"/>
-      <c r="G41" s="8" t="n"/>
+      <c r="F41" s="8" t="n"/>
+      <c r="G41" s="9" t="n"/>
       <c r="S41" t="inlineStr">
         <is>
           <t>BY VENDOR</t>
@@ -1501,16 +1501,16 @@
           <t>UNDERCOUNTER FREEZER</t>
         </is>
       </c>
-      <c r="D42" t="n">
+      <c r="D42" s="7" t="n">
         <v>120</v>
       </c>
       <c r="E42" t="n">
         <v>1</v>
       </c>
-      <c r="F42" s="7" t="n">
+      <c r="F42" s="8" t="n">
         <v>4</v>
       </c>
-      <c r="G42" s="8">
+      <c r="G42" s="9">
         <f>IF(E42&gt;1,(1.732*D42*F42)/1000,(D42*F42)/1000)</f>
         <v/>
       </c>
@@ -1532,8 +1532,8 @@
           <t>ACRYLIC SURROUND</t>
         </is>
       </c>
-      <c r="F43" s="7" t="n"/>
-      <c r="G43" s="8" t="n"/>
+      <c r="F43" s="8" t="n"/>
+      <c r="G43" s="9" t="n"/>
       <c r="S43" t="inlineStr">
         <is>
           <t>MILLWORK / BY GENERAL CONTRACTOR</t>
@@ -1554,8 +1554,8 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F44" s="7" t="n"/>
-      <c r="G44" s="8" t="n"/>
+      <c r="F44" s="8" t="n"/>
+      <c r="G44" s="9" t="n"/>
     </row>
     <row r="45">
       <c r="A45" s="5" t="n">
@@ -1569,8 +1569,8 @@
           <t>SAUCE WIRE RACK</t>
         </is>
       </c>
-      <c r="F45" s="7" t="n"/>
-      <c r="G45" s="8" t="n"/>
+      <c r="F45" s="8" t="n"/>
+      <c r="G45" s="9" t="n"/>
       <c r="S45" t="inlineStr">
         <is>
           <t>BY VENDOR</t>
@@ -1589,16 +1589,16 @@
           <t>ESPRESSO MACHINE</t>
         </is>
       </c>
-      <c r="D46" t="n">
+      <c r="D46" s="7" t="n">
         <v>208</v>
       </c>
       <c r="E46" t="n">
         <v>3</v>
       </c>
-      <c r="F46" s="7" t="n">
+      <c r="F46" s="8" t="n">
         <v>30</v>
       </c>
-      <c r="G46" s="8">
+      <c r="G46" s="9">
         <f>IF(E46&gt;1,(1.732*D46*F46)/1000,(D46*F46)/1000)</f>
         <v/>
       </c>
@@ -1625,8 +1625,8 @@
           <t>DRIP TROUGH</t>
         </is>
       </c>
-      <c r="F47" s="7" t="n"/>
-      <c r="G47" s="8" t="n"/>
+      <c r="F47" s="8" t="n"/>
+      <c r="G47" s="9" t="n"/>
       <c r="H47" t="inlineStr">
         <is>
           <t>1/2"</t>
@@ -1652,8 +1652,8 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F48" s="7" t="n"/>
-      <c r="G48" s="8" t="n"/>
+      <c r="F48" s="8" t="n"/>
+      <c r="G48" s="9" t="n"/>
     </row>
     <row r="49">
       <c r="A49" s="5" t="n">
@@ -1669,8 +1669,8 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F49" s="7" t="n"/>
-      <c r="G49" s="8" t="n"/>
+      <c r="F49" s="8" t="n"/>
+      <c r="G49" s="9" t="n"/>
     </row>
     <row r="50">
       <c r="A50" s="5" t="n">
@@ -1684,8 +1684,8 @@
           <t>WATER STATION</t>
         </is>
       </c>
-      <c r="F50" s="7" t="n"/>
-      <c r="G50" s="8" t="n"/>
+      <c r="F50" s="8" t="n"/>
+      <c r="G50" s="9" t="n"/>
       <c r="H50" t="inlineStr">
         <is>
           <t>1/2"</t>
@@ -1709,8 +1709,8 @@
           <t>DIPPERWELL</t>
         </is>
       </c>
-      <c r="F51" s="7" t="n"/>
-      <c r="G51" s="8" t="n"/>
+      <c r="F51" s="8" t="n"/>
+      <c r="G51" s="9" t="n"/>
       <c r="H51" t="inlineStr">
         <is>
           <t>1/2"</t>
@@ -1734,16 +1734,16 @@
           <t>UNDERCOUNTER REFRIGERATOR</t>
         </is>
       </c>
-      <c r="D52" t="n">
+      <c r="D52" s="7" t="n">
         <v>120</v>
       </c>
       <c r="E52" t="n">
         <v>1</v>
       </c>
-      <c r="F52" s="7" t="n">
+      <c r="F52" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="G52" s="8">
+      <c r="G52" s="9">
         <f>IF(E52&gt;1,(1.732*D52*F52)/1000,(D52*F52)/1000)</f>
         <v/>
       </c>
@@ -1767,8 +1767,8 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F53" s="7" t="n"/>
-      <c r="G53" s="8" t="n"/>
+      <c r="F53" s="8" t="n"/>
+      <c r="G53" s="9" t="n"/>
     </row>
     <row r="54">
       <c r="A54" s="5" t="n">
@@ -1784,8 +1784,8 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F54" s="7" t="n"/>
-      <c r="G54" s="8" t="n"/>
+      <c r="F54" s="8" t="n"/>
+      <c r="G54" s="9" t="n"/>
     </row>
     <row r="55">
       <c r="A55" s="5" t="n">
@@ -1799,16 +1799,16 @@
           <t>FREEZER MERCHANDISER</t>
         </is>
       </c>
-      <c r="D55" t="n">
+      <c r="D55" s="7" t="n">
         <v>120</v>
       </c>
       <c r="E55" t="n">
         <v>1</v>
       </c>
-      <c r="F55" s="7" t="n">
+      <c r="F55" s="8" t="n">
         <v>4.6</v>
       </c>
-      <c r="G55" s="8">
+      <c r="G55" s="9">
         <f>IF(E55&gt;1,(1.732*D55*F55)/1000,(D55*F55)/1000)</f>
         <v/>
       </c>
@@ -1830,16 +1830,16 @@
           <t>REFRIGERATED MERCHANDISER</t>
         </is>
       </c>
-      <c r="D56" t="n">
+      <c r="D56" s="7" t="n">
         <v>120</v>
       </c>
       <c r="E56" t="n">
         <v>1</v>
       </c>
-      <c r="F56" s="7" t="n">
+      <c r="F56" s="8" t="n">
         <v>3.1</v>
       </c>
-      <c r="G56" s="8">
+      <c r="G56" s="9">
         <f>IF(E56&gt;1,(1.732*D56*F56)/1000,(D56*F56)/1000)</f>
         <v/>
       </c>
@@ -1861,16 +1861,16 @@
           <t>OPEN DISPLAY MERCHANDISER</t>
         </is>
       </c>
-      <c r="D57" t="n">
+      <c r="D57" s="7" t="n">
         <v>120</v>
       </c>
       <c r="E57" t="n">
         <v>1</v>
       </c>
-      <c r="F57" s="7" t="n">
+      <c r="F57" s="8" t="n">
         <v>16.9</v>
       </c>
-      <c r="G57" s="8">
+      <c r="G57" s="9">
         <f>IF(E57&gt;1,(1.732*D57*F57)/1000,(D57*F57)/1000)</f>
         <v/>
       </c>
@@ -1889,8 +1889,8 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F58" s="7" t="n"/>
-      <c r="G58" s="8" t="n"/>
+      <c r="F58" s="8" t="n"/>
+      <c r="G58" s="9" t="n"/>
     </row>
     <row r="59">
       <c r="A59" s="5" t="n">
@@ -1906,8 +1906,8 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F59" s="7" t="n"/>
-      <c r="G59" s="8" t="n"/>
+      <c r="F59" s="8" t="n"/>
+      <c r="G59" s="9" t="n"/>
     </row>
     <row r="60">
       <c r="A60" s="5" t="n">
@@ -1921,8 +1921,8 @@
           <t>TRASH CHUTE</t>
         </is>
       </c>
-      <c r="F60" s="7" t="n"/>
-      <c r="G60" s="8" t="n"/>
+      <c r="F60" s="8" t="n"/>
+      <c r="G60" s="9" t="n"/>
       <c r="S60" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #63</t>
@@ -1941,8 +1941,8 @@
           <t>TRASH RECEPTACLE</t>
         </is>
       </c>
-      <c r="F61" s="7" t="n"/>
-      <c r="G61" s="8" t="n"/>
+      <c r="F61" s="8" t="n"/>
+      <c r="G61" s="9" t="n"/>
       <c r="S61" t="inlineStr">
         <is>
           <t>SLIM JIM</t>
@@ -1961,8 +1961,8 @@
           <t>PAPER NAPKIN DISPENSER</t>
         </is>
       </c>
-      <c r="F62" s="7" t="n"/>
-      <c r="G62" s="8" t="n"/>
+      <c r="F62" s="8" t="n"/>
+      <c r="G62" s="9" t="n"/>
     </row>
     <row r="63">
       <c r="A63" s="5" t="n">
@@ -1976,8 +1976,8 @@
           <t>AIRPOT</t>
         </is>
       </c>
-      <c r="F63" s="7" t="n"/>
-      <c r="G63" s="8" t="n"/>
+      <c r="F63" s="8" t="n"/>
+      <c r="G63" s="9" t="n"/>
     </row>
     <row r="64">
       <c r="A64" s="5" t="n">
@@ -1993,8 +1993,8 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F64" s="7" t="n"/>
-      <c r="G64" s="8" t="n"/>
+      <c r="F64" s="8" t="n"/>
+      <c r="G64" s="9" t="n"/>
     </row>
     <row r="65">
       <c r="A65" s="5" t="n">
@@ -2008,8 +2008,8 @@
           <t>CONDIMENT CADDY</t>
         </is>
       </c>
-      <c r="F65" s="7" t="n"/>
-      <c r="G65" s="8" t="n"/>
+      <c r="F65" s="8" t="n"/>
+      <c r="G65" s="9" t="n"/>
     </row>
     <row r="66">
       <c r="A66" s="5" t="n">
@@ -2023,8 +2023,8 @@
           <t>TRASH RECEPTACLE</t>
         </is>
       </c>
-      <c r="F66" s="7" t="n"/>
-      <c r="G66" s="8" t="n"/>
+      <c r="F66" s="8" t="n"/>
+      <c r="G66" s="9" t="n"/>
       <c r="S66" t="inlineStr">
         <is>
           <t>SLIM JIM</t>
@@ -2043,8 +2043,8 @@
           <t>TRASH CHUTE</t>
         </is>
       </c>
-      <c r="F67" s="7" t="n"/>
-      <c r="G67" s="8" t="n"/>
+      <c r="F67" s="8" t="n"/>
+      <c r="G67" s="9" t="n"/>
       <c r="S67" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #63</t>
@@ -2065,8 +2065,8 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F68" s="7" t="n"/>
-      <c r="G68" s="8" t="n"/>
+      <c r="F68" s="8" t="n"/>
+      <c r="G68" s="9" t="n"/>
     </row>
     <row r="69">
       <c r="A69" s="5" t="n">
@@ -2082,8 +2082,8 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F69" s="7" t="n"/>
-      <c r="G69" s="8" t="n"/>
+      <c r="F69" s="8" t="n"/>
+      <c r="G69" s="9" t="n"/>
     </row>
     <row r="70">
       <c r="A70" s="5" t="n">
@@ -2097,16 +2097,16 @@
           <t>SELF-PAY POS SYSTEM</t>
         </is>
       </c>
-      <c r="D70" t="n">
+      <c r="D70" s="7" t="n">
         <v>120</v>
       </c>
       <c r="E70" t="n">
         <v>1</v>
       </c>
-      <c r="F70" s="7" t="n">
+      <c r="F70" s="8" t="n">
         <v>40</v>
       </c>
-      <c r="G70" s="8">
+      <c r="G70" s="9">
         <f>IF(E70&gt;1,(1.732*D70*F70)/1000,(D70*F70)/1000)</f>
         <v/>
       </c>
@@ -2128,16 +2128,16 @@
           <t>POS PRINTER</t>
         </is>
       </c>
-      <c r="D71" t="n">
+      <c r="D71" s="7" t="n">
         <v>120</v>
       </c>
       <c r="E71" t="n">
         <v>1</v>
       </c>
-      <c r="F71" s="7" t="n">
+      <c r="F71" s="8" t="n">
         <v>10</v>
       </c>
-      <c r="G71" s="8">
+      <c r="G71" s="9">
         <f>IF(E71&gt;1,(1.732*D71*F71)/1000,(D71*F71)/1000)</f>
         <v/>
       </c>
@@ -2159,16 +2159,16 @@
           <t>SELF CHECK-OUT COUNTER</t>
         </is>
       </c>
-      <c r="D72" t="n">
+      <c r="D72" s="7" t="n">
         <v>120</v>
       </c>
       <c r="E72" t="n">
         <v>1</v>
       </c>
-      <c r="F72" s="7" t="n">
+      <c r="F72" s="8" t="n">
         <v>20</v>
       </c>
-      <c r="G72" s="8">
+      <c r="G72" s="9">
         <f>IF(E72&gt;1,(1.732*D72*F72)/1000,(D72*F72)/1000)</f>
         <v/>
       </c>
@@ -2190,8 +2190,8 @@
           <t>SNACK SHELVING</t>
         </is>
       </c>
-      <c r="F73" s="7" t="n"/>
-      <c r="G73" s="8" t="n"/>
+      <c r="F73" s="8" t="n"/>
+      <c r="G73" s="9" t="n"/>
       <c r="S73" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
@@ -2212,8 +2212,8 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F74" s="7" t="n"/>
-      <c r="G74" s="8" t="n"/>
+      <c r="F74" s="8" t="n"/>
+      <c r="G74" s="9" t="n"/>
     </row>
     <row r="75">
       <c r="A75" s="5" t="n">
@@ -2227,8 +2227,8 @@
           <t>ROBOBURGER MACHINE</t>
         </is>
       </c>
-      <c r="F75" s="7" t="n"/>
-      <c r="G75" s="8" t="n"/>
+      <c r="F75" s="8" t="n"/>
+      <c r="G75" s="9" t="n"/>
     </row>
     <row r="76">
       <c r="A76" s="5" t="n">
@@ -2242,16 +2242,16 @@
           <t>SOFT SERVE ICE CREAM VENDING MACHINE</t>
         </is>
       </c>
-      <c r="D76" t="n">
+      <c r="D76" s="7" t="n">
         <v>208</v>
       </c>
       <c r="E76" t="n">
         <v>1</v>
       </c>
-      <c r="F76" s="7" t="n">
+      <c r="F76" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="G76" s="8">
+      <c r="G76" s="9">
         <f>IF(E76&gt;1,(1.732*D76*F76)/1000,(D76*F76)/1000)</f>
         <v/>
       </c>
@@ -2268,16 +2268,16 @@
           <t>HOT FOOD VENDING MACHINE</t>
         </is>
       </c>
-      <c r="D77" s="9" t="n">
+      <c r="D77" s="7" t="n">
         <v>260</v>
       </c>
       <c r="E77" t="n">
         <v>1</v>
       </c>
-      <c r="F77" s="7" t="n">
+      <c r="F77" s="8" t="n">
         <v>30</v>
       </c>
-      <c r="G77" s="8">
+      <c r="G77" s="9">
         <f>IF(E77&gt;1,(1.732*D77*F77)/1000,(D77*F77)/1000)</f>
         <v/>
       </c>
@@ -2296,8 +2296,8 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F78" s="7" t="n"/>
-      <c r="G78" s="8" t="n"/>
+      <c r="F78" s="8" t="n"/>
+      <c r="G78" s="9" t="n"/>
     </row>
     <row r="79">
       <c r="A79" s="5" t="n">
@@ -2311,16 +2311,16 @@
           <t>PIZZA VENDING MACHINE</t>
         </is>
       </c>
-      <c r="D79" s="9" t="n">
+      <c r="D79" s="7" t="n">
         <v>230</v>
       </c>
       <c r="E79" t="n">
         <v>3</v>
       </c>
-      <c r="F79" s="7" t="n">
+      <c r="F79" s="8" t="n">
         <v>32</v>
       </c>
-      <c r="G79" s="8">
+      <c r="G79" s="9">
         <f>IF(E79&gt;1,(1.732*D79*F79)/1000,(D79*F79)/1000)</f>
         <v/>
       </c>
@@ -2339,8 +2339,8 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F80" s="7" t="n"/>
-      <c r="G80" s="8" t="n"/>
+      <c r="F80" s="8" t="n"/>
+      <c r="G80" s="9" t="n"/>
     </row>
     <row r="81">
       <c r="A81" s="5" t="n">
@@ -2356,8 +2356,8 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F81" s="7" t="n"/>
-      <c r="G81" s="8" t="n"/>
+      <c r="F81" s="8" t="n"/>
+      <c r="G81" s="9" t="n"/>
     </row>
     <row r="82">
       <c r="A82" s="5" t="n">
@@ -2373,8 +2373,8 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F82" s="7" t="n"/>
-      <c r="G82" s="8" t="n"/>
+      <c r="F82" s="8" t="n"/>
+      <c r="G82" s="9" t="n"/>
     </row>
     <row r="83">
       <c r="A83" s="5" t="inlineStr">
@@ -2392,8 +2392,8 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F83" s="7" t="n"/>
-      <c r="G83" s="8" t="n"/>
+      <c r="F83" s="8" t="n"/>
+      <c r="G83" s="9" t="n"/>
     </row>
     <row r="84">
       <c r="A84" s="3" t="inlineStr">
@@ -2432,8 +2432,8 @@
           <t>THREE COMPARTMENT SINK</t>
         </is>
       </c>
-      <c r="F85" s="7" t="n"/>
-      <c r="G85" s="8" t="n"/>
+      <c r="F85" s="8" t="n"/>
+      <c r="G85" s="9" t="n"/>
       <c r="H85" t="inlineStr">
         <is>
           <t>(2)3/4"</t>
@@ -2470,8 +2470,8 @@
           <t>POT SHELF</t>
         </is>
       </c>
-      <c r="F86" s="7" t="n"/>
-      <c r="G86" s="8" t="n"/>
+      <c r="F86" s="8" t="n"/>
+      <c r="G86" s="9" t="n"/>
       <c r="S86" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
@@ -2490,16 +2490,16 @@
           <t>REACH-IN FREEZER</t>
         </is>
       </c>
-      <c r="D87" t="n">
+      <c r="D87" s="7" t="n">
         <v>120</v>
       </c>
       <c r="E87" t="n">
         <v>1</v>
       </c>
-      <c r="F87" s="7" t="n">
+      <c r="F87" s="8" t="n">
         <v>3.7</v>
       </c>
-      <c r="G87" s="8">
+      <c r="G87" s="9">
         <f>IF(E87&gt;1,(1.732*D87*F87)/1000,(D87*F87)/1000)</f>
         <v/>
       </c>
@@ -2521,16 +2521,16 @@
           <t>REACH-IN REFRIGERATOR</t>
         </is>
       </c>
-      <c r="D88" t="n">
+      <c r="D88" s="7" t="n">
         <v>120</v>
       </c>
       <c r="E88" t="n">
         <v>1</v>
       </c>
-      <c r="F88" s="7" t="n">
+      <c r="F88" s="8" t="n">
         <v>10.8</v>
       </c>
-      <c r="G88" s="8">
+      <c r="G88" s="9">
         <f>IF(E88&gt;1,(1.732*D88*F88)/1000,(D88*F88)/1000)</f>
         <v/>
       </c>
@@ -2554,8 +2554,8 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F89" s="7" t="n"/>
-      <c r="G89" s="8" t="n"/>
+      <c r="F89" s="8" t="n"/>
+      <c r="G89" s="9" t="n"/>
     </row>
     <row r="90">
       <c r="A90" s="5" t="n">
@@ -2569,8 +2569,8 @@
           <t>SOILED DISH TABLE</t>
         </is>
       </c>
-      <c r="F90" s="7" t="n"/>
-      <c r="G90" s="8" t="n"/>
+      <c r="F90" s="8" t="n"/>
+      <c r="G90" s="9" t="n"/>
     </row>
     <row r="91">
       <c r="A91" s="5" t="n">
@@ -2584,16 +2584,16 @@
           <t>UNDERCOUNTER DISHWASHER</t>
         </is>
       </c>
-      <c r="D91" t="n">
+      <c r="D91" s="7" t="n">
         <v>120</v>
       </c>
       <c r="E91" t="n">
         <v>1</v>
       </c>
-      <c r="F91" s="7" t="n">
+      <c r="F91" s="8" t="n">
         <v>12</v>
       </c>
-      <c r="G91" s="8">
+      <c r="G91" s="9">
         <f>IF(E91&gt;1,(1.732*D91*F91)/1000,(D91*F91)/1000)</f>
         <v/>
       </c>
@@ -2620,8 +2620,8 @@
           <t>HAND SINK</t>
         </is>
       </c>
-      <c r="F92" s="7" t="n"/>
-      <c r="G92" s="8" t="n"/>
+      <c r="F92" s="8" t="n"/>
+      <c r="G92" s="9" t="n"/>
       <c r="H92" t="inlineStr">
         <is>
           <t>1/2"</t>
@@ -2660,8 +2660,8 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F93" s="7" t="n"/>
-      <c r="G93" s="8" t="n"/>
+      <c r="F93" s="8" t="n"/>
+      <c r="G93" s="9" t="n"/>
     </row>
     <row r="94">
       <c r="A94" s="5" t="n">
@@ -2677,8 +2677,8 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F94" s="7" t="n"/>
-      <c r="G94" s="8" t="n"/>
+      <c r="F94" s="8" t="n"/>
+      <c r="G94" s="9" t="n"/>
     </row>
     <row r="95">
       <c r="A95" s="5" t="n">
@@ -2692,8 +2692,8 @@
           <t>TRASH RECEPTACLE</t>
         </is>
       </c>
-      <c r="F95" s="7" t="n"/>
-      <c r="G95" s="8" t="n"/>
+      <c r="F95" s="8" t="n"/>
+      <c r="G95" s="9" t="n"/>
       <c r="S95" t="inlineStr">
         <is>
           <t>SLIM JIM</t>
@@ -2714,8 +2714,8 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F96" s="7" t="n"/>
-      <c r="G96" s="8" t="n"/>
+      <c r="F96" s="8" t="n"/>
+      <c r="G96" s="9" t="n"/>
     </row>
     <row r="97">
       <c r="A97" s="5" t="n">
@@ -2731,8 +2731,8 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F97" s="7" t="n"/>
-      <c r="G97" s="8" t="n"/>
+      <c r="F97" s="8" t="n"/>
+      <c r="G97" s="9" t="n"/>
     </row>
     <row r="98">
       <c r="A98" s="5" t="n">
@@ -2748,8 +2748,8 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F98" s="7" t="n"/>
-      <c r="G98" s="8" t="n"/>
+      <c r="F98" s="8" t="n"/>
+      <c r="G98" s="9" t="n"/>
     </row>
     <row r="99">
       <c r="A99" s="5" t="inlineStr">
@@ -2767,8 +2767,8 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F99" s="7" t="n"/>
-      <c r="G99" s="8" t="n"/>
+      <c r="F99" s="8" t="n"/>
+      <c r="G99" s="9" t="n"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr"/>

--- a/Bulk Loads/0923/_PRELIMINARY UTILITY EXPORT - FS_formatted.xlsx
+++ b/Bulk Loads/0923/_PRELIMINARY UTILITY EXPORT - FS_formatted.xlsx
@@ -17,9 +17,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="$#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -37,16 +37,14 @@
     </font>
     <font>
       <b val="1"/>
+      <color rgb="00FFFFFF"/>
+      <sz val="14"/>
     </font>
     <font>
       <b val="1"/>
-      <color rgb="00FFFFFF"/>
-    </font>
-    <font>
-      <color rgb="00595959"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
@@ -58,8 +56,14 @@
         <fgColor rgb="00002060"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFF00"/>
+        <bgColor rgb="00FFFF00"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -67,47 +71,27 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <top style="thick">
-        <color rgb="80002060"/>
-      </top>
-      <bottom style="thick"/>
-    </border>
-    <border>
-      <bottom style="thick"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -503,147 +487,2324 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:H15"/>
+  <dimension ref="A3:S101"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="6" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="10" customWidth="1" min="1" max="1"/>
-    <col width="13.3" customWidth="1" min="2" max="2"/>
-    <col width="30.1" customWidth="1" min="3" max="3"/>
-    <col width="28.9" customWidth="1" min="4" max="4"/>
-    <col width="15.9" customWidth="1" min="5" max="5"/>
-    <col width="19" customWidth="1" min="6" max="6"/>
-    <col width="3.7" customWidth="1" min="7" max="7"/>
-    <col width="64.90000000000001" customWidth="1" min="8" max="8"/>
+    <col width="5" customWidth="1" min="2" max="2"/>
+    <col width="40.1" customWidth="1" min="3" max="3"/>
+    <col width="10" customWidth="1" min="4" max="4"/>
+    <col width="10" customWidth="1" min="5" max="5"/>
+    <col width="10" customWidth="1" min="6" max="6"/>
+    <col width="10" customWidth="1" min="7" max="7"/>
+    <col width="10" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1"/>
-    <row r="2" ht="30.75" customHeight="1">
-      <c r="A2" s="1" t="inlineStr"/>
-    </row>
+    <row r="2" ht="30.75" customHeight="1"/>
     <row r="3" ht="23.25" customHeight="1">
-      <c r="A3" s="2" t="inlineStr">
-        <is>
-          <t>August 21, 2024</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="27" customHeight="1"/>
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>________ Preliminary Utility Schedule</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="27" customHeight="1">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>August 29, 2024</t>
+        </is>
+      </c>
+    </row>
     <row r="5" ht="30" customHeight="1">
-      <c r="A5" s="3" t="inlineStr">
-        <is>
-          <t>Item</t>
-        </is>
-      </c>
-      <c r="B5" s="4" t="inlineStr">
-        <is>
-          <t>Qty</t>
-        </is>
-      </c>
-      <c r="C5" s="3" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="D5" s="3" t="inlineStr">
-        <is>
-          <t>Model</t>
-        </is>
-      </c>
-      <c r="E5" s="5" t="inlineStr">
-        <is>
-          <t>Unit Cost</t>
-        </is>
-      </c>
-      <c r="F5" s="5" t="inlineStr">
+      <c r="A5" t="inlineStr"/>
+    </row>
+    <row r="6" ht="15.75" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>QTY</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>DESCRIPTION</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>VOLTS</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>PH</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>AMPS</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>KW</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>CW</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>HW</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>GPH</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>IW</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>DW</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>BTUS</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>EXH CFM</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>SUPPLY CFM</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>HEAT REJECTION</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>CHILLED WATER IN</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>CHILLED WATER OUT</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>REMARKS</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="5" customHeight="1"/>
+    <row r="8">
+      <c r="A8" s="3" t="inlineStr">
+        <is>
+          <t>CAFE AREA</t>
+        </is>
+      </c>
+      <c r="B8" s="4" t="n"/>
+      <c r="C8" s="4" t="n"/>
+      <c r="D8" s="4" t="n"/>
+      <c r="E8" s="4" t="n"/>
+      <c r="F8" s="4" t="n"/>
+      <c r="G8" s="4" t="n"/>
+      <c r="H8" s="4" t="n"/>
+      <c r="I8" s="4" t="n"/>
+      <c r="J8" s="4" t="n"/>
+      <c r="K8" s="4" t="n"/>
+      <c r="L8" s="4" t="n"/>
+      <c r="M8" s="4" t="n"/>
+      <c r="N8" s="4" t="n"/>
+      <c r="O8" s="4" t="n"/>
+      <c r="P8" s="4" t="n"/>
+      <c r="Q8" s="4" t="n"/>
+      <c r="R8" s="4" t="n"/>
+      <c r="S8" s="4" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B9" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>BACK SERVING COUNTER WITH SINK</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>120</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" s="7" t="n">
+        <v>40</v>
+      </c>
+      <c r="G9" s="8">
+        <f>IF(E9&gt;1,(1.732*D9*F9)/1000,(D9*F9)/1000)</f>
+        <v/>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>1/2"</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>1/2"</t>
+        </is>
+      </c>
+      <c r="J9" t="n">
+        <v>15</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>1-1/2"</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>CUSTOM FABRICATION</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="B10" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>BLENDER</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>120</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="G10" s="8">
+        <f>IF(E10&gt;1,(1.732*D10*F10)/1000,(D10*F10)/1000)</f>
+        <v/>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>WITH DOME</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B11" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>UNDERCOUNTER DISH MACHINE</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>120</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" s="7" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="G11" s="8">
+        <f>IF(E11&gt;1,(1.732*D11*F11)/1000,(D11*F11)/1000)</f>
+        <v/>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>3/4"</t>
+        </is>
+      </c>
+      <c r="J11" t="n">
+        <v>15</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>5/8"</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B12" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>DROP-IN ICE BIN</t>
+        </is>
+      </c>
+      <c r="F12" s="7" t="n"/>
+      <c r="G12" s="8" t="n"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>1"</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="B13" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>HAND SINK</t>
+        </is>
+      </c>
+      <c r="F13" s="7" t="n"/>
+      <c r="G13" s="8" t="n"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>1/2"</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>1/2"</t>
+        </is>
+      </c>
+      <c r="J13" t="n">
+        <v>15</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>1-1/2"</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>CUSTOM FABRICATION WITH SOAP AND TOWEL DISPENSER</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="B14" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>DRAFT BEER REFRIGERATOR</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>120</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" s="7" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="G14" s="8">
+        <f>IF(E14&gt;1,(1.732*D14*F14)/1000,(D14*F14)/1000)</f>
+        <v/>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>MOBILE</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="B15" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>COFFEE GRINDER</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>120</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" s="7" t="n">
+        <v>11</v>
+      </c>
+      <c r="G15" s="8">
+        <f>IF(E15&gt;1,(1.732*D15*F15)/1000,(D15*F15)/1000)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="5" t="n">
+        <v>8</v>
+      </c>
+      <c r="B16" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>UNDERCOUNTER ICE MAKER</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>208</v>
+      </c>
+      <c r="E16" t="n">
+        <v>3</v>
+      </c>
+      <c r="F16" s="7" t="n">
+        <v>15</v>
+      </c>
+      <c r="G16" s="8">
+        <f>IF(E16&gt;1,(1.732*D16*F16)/1000,(D16*F16)/1000)</f>
+        <v/>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>3/8"</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>WITH BIN AIR-COOLED 3OOLBS</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="5" t="n">
+        <v>9</v>
+      </c>
+      <c r="B17" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>WATER FILTRATION SYSTEM</t>
+        </is>
+      </c>
+      <c r="F17" s="7" t="n"/>
+      <c r="G17" s="8" t="n"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>3/8"</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>FOR ITEM #8</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="B18" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>SPARE NUMBER</t>
+        </is>
+      </c>
+      <c r="F18" s="7" t="n"/>
+      <c r="G18" s="8" t="n"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="5" t="n">
+        <v>11</v>
+      </c>
+      <c r="B19" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>COFFEE BREWER</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>208</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" s="7" t="n">
+        <v>19.7</v>
+      </c>
+      <c r="G19" s="8">
+        <f>IF(E19&gt;1,(1.732*D19*F19)/1000,(D19*F19)/1000)</f>
+        <v/>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>3/8"</t>
+        </is>
+      </c>
+      <c r="J19" t="n">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="5" t="n">
+        <v>12</v>
+      </c>
+      <c r="B20" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>UNDERCOUNTER REFRIGERATOR</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>120</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="G20" s="8">
+        <f>IF(E20&gt;1,(1.732*D20*F20)/1000,(D20*F20)/1000)</f>
+        <v/>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>MOBILE</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="5" t="n">
+        <v>13</v>
+      </c>
+      <c r="B21" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>AIRPOT</t>
+        </is>
+      </c>
+      <c r="F21" s="7" t="n"/>
+      <c r="G21" s="8" t="n"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="5" t="n">
+        <v>14</v>
+      </c>
+      <c r="B22" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>AIRPOT SERVING RACK</t>
+        </is>
+      </c>
+      <c r="F22" s="7" t="n"/>
+      <c r="G22" s="8" t="n"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="5" t="n">
+        <v>15</v>
+      </c>
+      <c r="B23" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>SPARE NUMBER</t>
+        </is>
+      </c>
+      <c r="F23" s="7" t="n"/>
+      <c r="G23" s="8" t="n"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="B24" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>COLD BREW AND COFFEE DISPENSER</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>120</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1</v>
+      </c>
+      <c r="F24" s="7" t="n">
+        <v>6</v>
+      </c>
+      <c r="G24" s="8">
+        <f>IF(E24&gt;1,(1.732*D24*F24)/1000,(D24*F24)/1000)</f>
+        <v/>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>3/8"</t>
+        </is>
+      </c>
+      <c r="J24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="5" t="n">
+        <v>17</v>
+      </c>
+      <c r="B25" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>ICED TEA DISPENSER</t>
+        </is>
+      </c>
+      <c r="F25" s="7" t="n"/>
+      <c r="G25" s="8" t="n"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="5" t="n">
+        <v>18</v>
+      </c>
+      <c r="B26" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>UNDERCOUNTER REFRIGERATOR</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>120</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1</v>
+      </c>
+      <c r="F26" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="G26" s="8">
+        <f>IF(E26&gt;1,(1.732*D26*F26)/1000,(D26*F26)/1000)</f>
+        <v/>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>MOBILE</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="5" t="n">
+        <v>19</v>
+      </c>
+      <c r="B27" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>SPARE NUMBER</t>
+        </is>
+      </c>
+      <c r="F27" s="7" t="n"/>
+      <c r="G27" s="8" t="n"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="5" t="n">
+        <v>20</v>
+      </c>
+      <c r="B28" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>SPARE NUMBER</t>
+        </is>
+      </c>
+      <c r="F28" s="7" t="n"/>
+      <c r="G28" s="8" t="n"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="5" t="n">
+        <v>21</v>
+      </c>
+      <c r="B29" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>RAPID COOK OVEN</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>208</v>
+      </c>
+      <c r="E29" t="n">
+        <v>3</v>
+      </c>
+      <c r="F29" s="7" t="n">
+        <v>20</v>
+      </c>
+      <c r="G29" s="8">
+        <f>IF(E29&gt;1,(1.732*D29*F29)/1000,(D29*F29)/1000)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="5" t="n">
+        <v>22</v>
+      </c>
+      <c r="B30" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>REFRIGERATED GRAB &amp; GO CASE</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>120</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1</v>
+      </c>
+      <c r="F30" s="7" t="n">
+        <v>16</v>
+      </c>
+      <c r="G30" s="8">
+        <f>IF(E30&gt;1,(1.732*D30*F30)/1000,(D30*F30)/1000)</f>
+        <v/>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>1 1/2"</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="5" t="n">
+        <v>22</v>
+      </c>
+      <c r="B31" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>REFRIGERATED GRAB &amp; GO CASE</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>120</v>
+      </c>
+      <c r="E31" t="n">
+        <v>1</v>
+      </c>
+      <c r="F31" s="7" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G31" s="8">
+        <f>IF(E31&gt;1,(1.732*D31*F31)/1000,(D31*F31)/1000)</f>
+        <v/>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>1 1/2"</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="5" t="n">
+        <v>23</v>
+      </c>
+      <c r="B32" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>FRONT SERVING COUNTER</t>
+        </is>
+      </c>
+      <c r="F32" s="7" t="n"/>
+      <c r="G32" s="8" t="n"/>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>CUSTOM FABRICATION</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="5" t="n">
+        <v>24</v>
+      </c>
+      <c r="B33" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>POS SYSTEM</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>120</v>
+      </c>
+      <c r="E33" t="n">
+        <v>1</v>
+      </c>
+      <c r="F33" s="7" t="n">
+        <v>40</v>
+      </c>
+      <c r="G33" s="8">
+        <f>IF(E33&gt;1,(1.732*D33*F33)/1000,(D33*F33)/1000)</f>
+        <v/>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>BY OS&amp;E</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="5" t="n">
+        <v>25</v>
+      </c>
+      <c r="B34" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>SPARE NUMBER</t>
+        </is>
+      </c>
+      <c r="F34" s="7" t="n"/>
+      <c r="G34" s="8" t="n"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="5" t="n">
+        <v>26</v>
+      </c>
+      <c r="B35" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>POS PRINTER</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>120</v>
+      </c>
+      <c r="E35" t="n">
+        <v>1</v>
+      </c>
+      <c r="F35" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="G35" s="8">
+        <f>IF(E35&gt;1,(1.732*D35*F35)/1000,(D35*F35)/1000)</f>
+        <v/>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>BY OS&amp;E</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="5" t="n">
+        <v>27</v>
+      </c>
+      <c r="B36" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>TEA WIRE RACK</t>
+        </is>
+      </c>
+      <c r="F36" s="7" t="n"/>
+      <c r="G36" s="8" t="n"/>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>BY VENDOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="5" t="n">
+        <v>28</v>
+      </c>
+      <c r="B37" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>TRASH RECEPTACLE</t>
+        </is>
+      </c>
+      <c r="F37" s="7" t="n"/>
+      <c r="G37" s="8" t="n"/>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>SLIM JIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="5" t="n">
+        <v>29</v>
+      </c>
+      <c r="B38" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>SPARE NUMBER</t>
+        </is>
+      </c>
+      <c r="F38" s="7" t="n"/>
+      <c r="G38" s="8" t="n"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="5" t="n">
+        <v>30</v>
+      </c>
+      <c r="B39" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>SPARE NUMBER</t>
+        </is>
+      </c>
+      <c r="F39" s="7" t="n"/>
+      <c r="G39" s="8" t="n"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="5" t="n">
+        <v>31</v>
+      </c>
+      <c r="B40" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>KNOCK BOX</t>
+        </is>
+      </c>
+      <c r="F40" s="7" t="n"/>
+      <c r="G40" s="8" t="n"/>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>CUSTOM FABRICATION PART OF ITEM #23</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="5" t="n">
+        <v>32</v>
+      </c>
+      <c r="B41" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>SYRUP WIRE RACK</t>
+        </is>
+      </c>
+      <c r="F41" s="7" t="n"/>
+      <c r="G41" s="8" t="n"/>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>BY VENDOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="5" t="n">
+        <v>33</v>
+      </c>
+      <c r="B42" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>UNDERCOUNTER FREEZER</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>120</v>
+      </c>
+      <c r="E42" t="n">
+        <v>1</v>
+      </c>
+      <c r="F42" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="G42" s="8">
+        <f>IF(E42&gt;1,(1.732*D42*F42)/1000,(D42*F42)/1000)</f>
+        <v/>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>MOBILE</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="5" t="n">
+        <v>34</v>
+      </c>
+      <c r="B43" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>ACRYLIC SURROUND</t>
+        </is>
+      </c>
+      <c r="F43" s="7" t="n"/>
+      <c r="G43" s="8" t="n"/>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>MILLWORK / BY GENERAL CONTRACTOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="5" t="n">
+        <v>35</v>
+      </c>
+      <c r="B44" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>SPARE NUMBER</t>
+        </is>
+      </c>
+      <c r="F44" s="7" t="n"/>
+      <c r="G44" s="8" t="n"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="5" t="n">
+        <v>36</v>
+      </c>
+      <c r="B45" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>SAUCE WIRE RACK</t>
+        </is>
+      </c>
+      <c r="F45" s="7" t="n"/>
+      <c r="G45" s="8" t="n"/>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>BY VENDOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="5" t="n">
+        <v>37</v>
+      </c>
+      <c r="B46" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>ESPRESSO MACHINE</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>208</v>
+      </c>
+      <c r="E46" t="n">
+        <v>3</v>
+      </c>
+      <c r="F46" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="G46" s="8">
+        <f>IF(E46&gt;1,(1.732*D46*F46)/1000,(D46*F46)/1000)</f>
+        <v/>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>3/8"</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>1 1/2"</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="5" t="n">
+        <v>38</v>
+      </c>
+      <c r="B47" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>DRIP TROUGH</t>
+        </is>
+      </c>
+      <c r="F47" s="7" t="n"/>
+      <c r="G47" s="8" t="n"/>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>1/2"</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>1/2"</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="5" t="n">
+        <v>39</v>
+      </c>
+      <c r="B48" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>SPARE NUMBER</t>
+        </is>
+      </c>
+      <c r="F48" s="7" t="n"/>
+      <c r="G48" s="8" t="n"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="5" t="n">
+        <v>40</v>
+      </c>
+      <c r="B49" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>SPARE NUMBER</t>
+        </is>
+      </c>
+      <c r="F49" s="7" t="n"/>
+      <c r="G49" s="8" t="n"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="B50" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>WATER STATION</t>
+        </is>
+      </c>
+      <c r="F50" s="7" t="n"/>
+      <c r="G50" s="8" t="n"/>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>1/2"</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>1 1/4"</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="5" t="n">
+        <v>42</v>
+      </c>
+      <c r="B51" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>DIPPERWELL</t>
+        </is>
+      </c>
+      <c r="F51" s="7" t="n"/>
+      <c r="G51" s="8" t="n"/>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>1/2"</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>1-1/2"</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="5" t="n">
+        <v>43</v>
+      </c>
+      <c r="B52" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>UNDERCOUNTER REFRIGERATOR</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>120</v>
+      </c>
+      <c r="E52" t="n">
+        <v>1</v>
+      </c>
+      <c r="F52" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="G52" s="8">
+        <f>IF(E52&gt;1,(1.732*D52*F52)/1000,(D52*F52)/1000)</f>
+        <v/>
+      </c>
+      <c r="S52" t="inlineStr">
+        <is>
+          <t>MOBILE</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="5" t="n">
+        <v>44</v>
+      </c>
+      <c r="B53" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>SPARE NUMBER</t>
+        </is>
+      </c>
+      <c r="F53" s="7" t="n"/>
+      <c r="G53" s="8" t="n"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="5" t="n">
+        <v>45</v>
+      </c>
+      <c r="B54" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>SPARE NUMBER</t>
+        </is>
+      </c>
+      <c r="F54" s="7" t="n"/>
+      <c r="G54" s="8" t="n"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="5" t="n">
+        <v>46</v>
+      </c>
+      <c r="B55" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>FREEZER MERCHANDISER</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>120</v>
+      </c>
+      <c r="E55" t="n">
+        <v>1</v>
+      </c>
+      <c r="F55" s="7" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="G55" s="8">
+        <f>IF(E55&gt;1,(1.732*D55*F55)/1000,(D55*F55)/1000)</f>
+        <v/>
+      </c>
+      <c r="S55" t="inlineStr">
+        <is>
+          <t>MOBILE</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="5" t="n">
+        <v>47</v>
+      </c>
+      <c r="B56" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>REFRIGERATED MERCHANDISER</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>120</v>
+      </c>
+      <c r="E56" t="n">
+        <v>1</v>
+      </c>
+      <c r="F56" s="7" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="G56" s="8">
+        <f>IF(E56&gt;1,(1.732*D56*F56)/1000,(D56*F56)/1000)</f>
+        <v/>
+      </c>
+      <c r="S56" t="inlineStr">
+        <is>
+          <t>MOBILE</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="5" t="n">
+        <v>48</v>
+      </c>
+      <c r="B57" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>OPEN DISPLAY MERCHANDISER</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>120</v>
+      </c>
+      <c r="E57" t="n">
+        <v>1</v>
+      </c>
+      <c r="F57" s="7" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="G57" s="8">
+        <f>IF(E57&gt;1,(1.732*D57*F57)/1000,(D57*F57)/1000)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="5" t="n">
+        <v>49</v>
+      </c>
+      <c r="B58" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>SPARE NUMBER</t>
+        </is>
+      </c>
+      <c r="F58" s="7" t="n"/>
+      <c r="G58" s="8" t="n"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="5" t="n">
+        <v>50</v>
+      </c>
+      <c r="B59" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>SPARE NUMBER</t>
+        </is>
+      </c>
+      <c r="F59" s="7" t="n"/>
+      <c r="G59" s="8" t="n"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="5" t="n">
+        <v>51</v>
+      </c>
+      <c r="B60" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>TRASH CHUTE</t>
+        </is>
+      </c>
+      <c r="F60" s="7" t="n"/>
+      <c r="G60" s="8" t="n"/>
+      <c r="S60" t="inlineStr">
+        <is>
+          <t>CUSTOM FABRICATION PART OF ITEM #63</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="5" t="n">
+        <v>52</v>
+      </c>
+      <c r="B61" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>TRASH RECEPTACLE</t>
+        </is>
+      </c>
+      <c r="F61" s="7" t="n"/>
+      <c r="G61" s="8" t="n"/>
+      <c r="S61" t="inlineStr">
+        <is>
+          <t>SLIM JIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="5" t="n">
+        <v>53</v>
+      </c>
+      <c r="B62" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>PAPER NAPKIN DISPENSER</t>
+        </is>
+      </c>
+      <c r="F62" s="7" t="n"/>
+      <c r="G62" s="8" t="n"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="5" t="n">
+        <v>54</v>
+      </c>
+      <c r="B63" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>AIRPOT</t>
+        </is>
+      </c>
+      <c r="F63" s="7" t="n"/>
+      <c r="G63" s="8" t="n"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="5" t="n">
+        <v>55</v>
+      </c>
+      <c r="B64" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>SPARE NUMBER</t>
+        </is>
+      </c>
+      <c r="F64" s="7" t="n"/>
+      <c r="G64" s="8" t="n"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="5" t="n">
+        <v>56</v>
+      </c>
+      <c r="B65" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>CONDIMENT CADDY</t>
+        </is>
+      </c>
+      <c r="F65" s="7" t="n"/>
+      <c r="G65" s="8" t="n"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="5" t="n">
+        <v>57</v>
+      </c>
+      <c r="B66" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>TRASH RECEPTACLE</t>
+        </is>
+      </c>
+      <c r="F66" s="7" t="n"/>
+      <c r="G66" s="8" t="n"/>
+      <c r="S66" t="inlineStr">
+        <is>
+          <t>SLIM JIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="5" t="n">
+        <v>58</v>
+      </c>
+      <c r="B67" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>TRASH CHUTE</t>
+        </is>
+      </c>
+      <c r="F67" s="7" t="n"/>
+      <c r="G67" s="8" t="n"/>
+      <c r="S67" t="inlineStr">
+        <is>
+          <t>CUSTOM FABRICATION PART OF ITEM #63</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="5" t="n">
+        <v>59</v>
+      </c>
+      <c r="B68" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>SPARE NUMBER</t>
+        </is>
+      </c>
+      <c r="F68" s="7" t="n"/>
+      <c r="G68" s="8" t="n"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="5" t="n">
+        <v>60</v>
+      </c>
+      <c r="B69" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>SPARE NUMBER</t>
+        </is>
+      </c>
+      <c r="F69" s="7" t="n"/>
+      <c r="G69" s="8" t="n"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="5" t="n">
+        <v>61</v>
+      </c>
+      <c r="B70" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>SELF-PAY POS SYSTEM</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>120</v>
+      </c>
+      <c r="E70" t="n">
+        <v>1</v>
+      </c>
+      <c r="F70" s="7" t="n">
+        <v>40</v>
+      </c>
+      <c r="G70" s="8">
+        <f>IF(E70&gt;1,(1.732*D70*F70)/1000,(D70*F70)/1000)</f>
+        <v/>
+      </c>
+      <c r="S70" t="inlineStr">
+        <is>
+          <t>BY OS&amp;E</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="5" t="n">
+        <v>62</v>
+      </c>
+      <c r="B71" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>POS PRINTER</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>120</v>
+      </c>
+      <c r="E71" t="n">
+        <v>1</v>
+      </c>
+      <c r="F71" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="G71" s="8">
+        <f>IF(E71&gt;1,(1.732*D71*F71)/1000,(D71*F71)/1000)</f>
+        <v/>
+      </c>
+      <c r="S71" t="inlineStr">
+        <is>
+          <t>BY OS&amp;E</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="5" t="n">
+        <v>63</v>
+      </c>
+      <c r="B72" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>SELF CHECK-OUT COUNTER</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>120</v>
+      </c>
+      <c r="E72" t="n">
+        <v>1</v>
+      </c>
+      <c r="F72" s="7" t="n">
+        <v>20</v>
+      </c>
+      <c r="G72" s="8">
+        <f>IF(E72&gt;1,(1.732*D72*F72)/1000,(D72*F72)/1000)</f>
+        <v/>
+      </c>
+      <c r="S72" t="inlineStr">
+        <is>
+          <t>CUSTOM FABRICATION</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="5" t="n">
+        <v>64</v>
+      </c>
+      <c r="B73" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>SNACK SHELVING</t>
+        </is>
+      </c>
+      <c r="F73" s="7" t="n"/>
+      <c r="G73" s="8" t="n"/>
+      <c r="S73" t="inlineStr">
+        <is>
+          <t>CUSTOM FABRICATION</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="5" t="n">
+        <v>65</v>
+      </c>
+      <c r="B74" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>SPARE NUMBER</t>
+        </is>
+      </c>
+      <c r="F74" s="7" t="n"/>
+      <c r="G74" s="8" t="n"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="5" t="n">
+        <v>66</v>
+      </c>
+      <c r="B75" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>ROBOBURGER MACHINE</t>
+        </is>
+      </c>
+      <c r="F75" s="7" t="n"/>
+      <c r="G75" s="8" t="n"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="5" t="n">
+        <v>67</v>
+      </c>
+      <c r="B76" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>SOFT SERVE ICE CREAM VENDING MACHINE</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>208</v>
+      </c>
+      <c r="E76" t="n">
+        <v>1</v>
+      </c>
+      <c r="F76" s="7" t="n">
+        <v>25</v>
+      </c>
+      <c r="G76" s="8">
+        <f>IF(E76&gt;1,(1.732*D76*F76)/1000,(D76*F76)/1000)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="5" t="n">
+        <v>68</v>
+      </c>
+      <c r="B77" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>HOT FOOD VENDING MACHINE</t>
+        </is>
+      </c>
+      <c r="D77" s="9" t="n">
+        <v>260</v>
+      </c>
+      <c r="E77" t="n">
+        <v>1</v>
+      </c>
+      <c r="F77" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="G77" s="8">
+        <f>IF(E77&gt;1,(1.732*D77*F77)/1000,(D77*F77)/1000)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="5" t="n">
+        <v>69</v>
+      </c>
+      <c r="B78" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>SPARE NUMBER</t>
+        </is>
+      </c>
+      <c r="F78" s="7" t="n"/>
+      <c r="G78" s="8" t="n"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="5" t="n">
+        <v>71</v>
+      </c>
+      <c r="B79" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>PIZZA VENDING MACHINE</t>
+        </is>
+      </c>
+      <c r="D79" s="9" t="n">
+        <v>230</v>
+      </c>
+      <c r="E79" t="n">
+        <v>3</v>
+      </c>
+      <c r="F79" s="7" t="n">
+        <v>32</v>
+      </c>
+      <c r="G79" s="8">
+        <f>IF(E79&gt;1,(1.732*D79*F79)/1000,(D79*F79)/1000)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="5" t="n">
+        <v>72</v>
+      </c>
+      <c r="B80" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>SPARE NUMBER</t>
+        </is>
+      </c>
+      <c r="F80" s="7" t="n"/>
+      <c r="G80" s="8" t="n"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="5" t="n">
+        <v>73</v>
+      </c>
+      <c r="B81" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>SPARE NUMBER</t>
+        </is>
+      </c>
+      <c r="F81" s="7" t="n"/>
+      <c r="G81" s="8" t="n"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="5" t="n">
+        <v>74</v>
+      </c>
+      <c r="B82" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>SPARE NUMBER</t>
+        </is>
+      </c>
+      <c r="F82" s="7" t="n"/>
+      <c r="G82" s="8" t="n"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="5" t="inlineStr">
+        <is>
+          <t>75-80</t>
+        </is>
+      </c>
+      <c r="B83" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>SPARE NUMBER</t>
+        </is>
+      </c>
+      <c r="F83" s="7" t="n"/>
+      <c r="G83" s="8" t="n"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="3" t="inlineStr">
+        <is>
+          <t>BACK OF HOUSE AREA</t>
+        </is>
+      </c>
+      <c r="B84" s="4" t="n"/>
+      <c r="C84" s="4" t="n"/>
+      <c r="D84" s="4" t="n"/>
+      <c r="E84" s="4" t="n"/>
+      <c r="F84" s="4" t="n"/>
+      <c r="G84" s="4" t="n"/>
+      <c r="H84" s="4" t="n"/>
+      <c r="I84" s="4" t="n"/>
+      <c r="J84" s="4" t="n"/>
+      <c r="K84" s="4" t="n"/>
+      <c r="L84" s="4" t="n"/>
+      <c r="M84" s="4" t="n"/>
+      <c r="N84" s="4" t="n"/>
+      <c r="O84" s="4" t="n"/>
+      <c r="P84" s="4" t="n"/>
+      <c r="Q84" s="4" t="n"/>
+      <c r="R84" s="4" t="n"/>
+      <c r="S84" s="4" t="n"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="5" t="n">
+        <v>81</v>
+      </c>
+      <c r="B85" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>THREE COMPARTMENT SINK</t>
+        </is>
+      </c>
+      <c r="F85" s="7" t="n"/>
+      <c r="G85" s="8" t="n"/>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>(2)3/4"</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>(2)3/4"</t>
+        </is>
+      </c>
+      <c r="J85" t="n">
+        <v>90</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>(3)2"</t>
+        </is>
+      </c>
+      <c r="S85" t="inlineStr">
+        <is>
+          <t>CUSTOM FABRICATION</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="5" t="n">
+        <v>82</v>
+      </c>
+      <c r="B86" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>POT SHELF</t>
+        </is>
+      </c>
+      <c r="F86" s="7" t="n"/>
+      <c r="G86" s="8" t="n"/>
+      <c r="S86" t="inlineStr">
+        <is>
+          <t>CUSTOM FABRICATION</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="5" t="n">
+        <v>83</v>
+      </c>
+      <c r="B87" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>REACH-IN FREEZER</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>120</v>
+      </c>
+      <c r="E87" t="n">
+        <v>1</v>
+      </c>
+      <c r="F87" s="7" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="G87" s="8">
+        <f>IF(E87&gt;1,(1.732*D87*F87)/1000,(D87*F87)/1000)</f>
+        <v/>
+      </c>
+      <c r="S87" t="inlineStr">
+        <is>
+          <t>MOBILE</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="5" t="n">
+        <v>84</v>
+      </c>
+      <c r="B88" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>REACH-IN REFRIGERATOR</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>120</v>
+      </c>
+      <c r="E88" t="n">
+        <v>1</v>
+      </c>
+      <c r="F88" s="7" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="G88" s="8">
+        <f>IF(E88&gt;1,(1.732*D88*F88)/1000,(D88*F88)/1000)</f>
+        <v/>
+      </c>
+      <c r="S88" t="inlineStr">
+        <is>
+          <t>MOBILE</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="5" t="n">
+        <v>85</v>
+      </c>
+      <c r="B89" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>SPARE NUMBER</t>
+        </is>
+      </c>
+      <c r="F89" s="7" t="n"/>
+      <c r="G89" s="8" t="n"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="5" t="n">
+        <v>86</v>
+      </c>
+      <c r="B90" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>SOILED DISH TABLE</t>
+        </is>
+      </c>
+      <c r="F90" s="7" t="n"/>
+      <c r="G90" s="8" t="n"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="5" t="n">
+        <v>87</v>
+      </c>
+      <c r="B91" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>UNDERCOUNTER DISHWASHER</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>120</v>
+      </c>
+      <c r="E91" t="n">
+        <v>1</v>
+      </c>
+      <c r="F91" s="7" t="n">
+        <v>12</v>
+      </c>
+      <c r="G91" s="8">
+        <f>IF(E91&gt;1,(1.732*D91*F91)/1000,(D91*F91)/1000)</f>
+        <v/>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>3/8"</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>6.5"</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="5" t="n">
+        <v>88</v>
+      </c>
+      <c r="B92" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>HAND SINK</t>
+        </is>
+      </c>
+      <c r="F92" s="7" t="n"/>
+      <c r="G92" s="8" t="n"/>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>1/2"</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>1/2"</t>
+        </is>
+      </c>
+      <c r="J92" t="n">
+        <v>5</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>1-1/2"</t>
+        </is>
+      </c>
+      <c r="S92" t="inlineStr">
+        <is>
+          <t>WITH VENDOR PROVIDED SOAP &amp; TOWEL DISPENSER</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="5" t="n">
+        <v>89</v>
+      </c>
+      <c r="B93" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>SPARE NUMBER</t>
+        </is>
+      </c>
+      <c r="F93" s="7" t="n"/>
+      <c r="G93" s="8" t="n"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="5" t="n">
+        <v>90</v>
+      </c>
+      <c r="B94" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>SPARE NUMBER</t>
+        </is>
+      </c>
+      <c r="F94" s="7" t="n"/>
+      <c r="G94" s="8" t="n"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="5" t="n">
+        <v>91</v>
+      </c>
+      <c r="B95" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>TRASH RECEPTACLE</t>
+        </is>
+      </c>
+      <c r="F95" s="7" t="n"/>
+      <c r="G95" s="8" t="n"/>
+      <c r="S95" t="inlineStr">
+        <is>
+          <t>SLIM JIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="5" t="n">
+        <v>92</v>
+      </c>
+      <c r="B96" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>SPARE NUMBER</t>
+        </is>
+      </c>
+      <c r="F96" s="7" t="n"/>
+      <c r="G96" s="8" t="n"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="5" t="n">
+        <v>93</v>
+      </c>
+      <c r="B97" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>SPARE NUMBER</t>
+        </is>
+      </c>
+      <c r="F97" s="7" t="n"/>
+      <c r="G97" s="8" t="n"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="5" t="n">
+        <v>94</v>
+      </c>
+      <c r="B98" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>SPARE NUMBER</t>
+        </is>
+      </c>
+      <c r="F98" s="7" t="n"/>
+      <c r="G98" s="8" t="n"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="5" t="inlineStr">
+        <is>
+          <t>95-100</t>
+        </is>
+      </c>
+      <c r="B99" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>SPARE NUMBER</t>
+        </is>
+      </c>
+      <c r="F99" s="7" t="n"/>
+      <c r="G99" s="8" t="n"/>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="10" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H5" s="3" t="inlineStr">
-        <is>
-          <t>Remarks</t>
-        </is>
-      </c>
-    </row>
-    <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="6" t="n"/>
-      <c r="B6" s="6" t="n"/>
-      <c r="C6" s="6" t="n"/>
-      <c r="D6" s="6" t="n"/>
-      <c r="E6" s="6" t="n"/>
-      <c r="F6" s="6" t="n"/>
-    </row>
-    <row r="7" ht="18.75" customHeight="1">
-      <c r="E7" s="7" t="inlineStr">
-        <is>
-          <t>Equipment SubTotal</t>
-        </is>
-      </c>
-      <c r="F7" s="8">
-        <f>SUM(F6:F6)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8">
-      <c r="D8" s="6" t="n"/>
-      <c r="E8" s="9" t="inlineStr">
-        <is>
-          <t>Delivery, Installation, Set-in Place</t>
-        </is>
-      </c>
-      <c r="F8" s="10">
-        <f>F7*0.18</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9">
-      <c r="E9" s="11" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="F9" s="12">
-        <f>SUM(F7:F8)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="13" t="inlineStr">
-        <is>
-          <t>QUALIFICATIONS</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="14" t="inlineStr">
-        <is>
-          <t>1. Price does not include project contingency.</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="14" t="inlineStr">
-        <is>
-          <t>2. Price does not include sales tax or use taxes.</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="14" t="inlineStr">
-        <is>
-          <t>3. Price is good through _____________</t>
-        </is>
+      <c r="G101" s="11">
+        <f>SUM(G7:G100)</f>
+        <v/>
+      </c>
+      <c r="J101" s="11">
+        <f>SUM(J7:J100)</f>
+        <v/>
+      </c>
+      <c r="M101" s="11">
+        <f>SUM(M7:M100)</f>
+        <v/>
+      </c>
+      <c r="N101" s="11">
+        <f>SUM(N7:N100)</f>
+        <v/>
+      </c>
+      <c r="O101" s="11">
+        <f>SUM(O7:O100)</f>
+        <v/>
+      </c>
+      <c r="P101" s="11">
+        <f>SUM(P7:P100)</f>
+        <v/>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A12:C12"/>
-  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>

--- a/Bulk Loads/0923/_PRELIMINARY UTILITY EXPORT - FS_formatted.xlsx
+++ b/Bulk Loads/0923/_PRELIMINARY UTILITY EXPORT - FS_formatted.xlsx
@@ -75,7 +75,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -89,6 +89,9 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -485,7 +488,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A3:S101"/>
   <sheetViews>
@@ -506,6 +509,7 @@
     <col width="10" customWidth="1" min="6" max="6"/>
     <col width="10" customWidth="1" min="7" max="7"/>
     <col width="10" customWidth="1" min="8" max="8"/>
+    <col width="30" customWidth="1" min="19" max="19"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1"/>
@@ -520,7 +524,7 @@
     <row r="4" ht="27" customHeight="1">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>August 29, 2024</t>
+          <t>September 18, 2024</t>
         </is>
       </c>
     </row>
@@ -693,7 +697,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
-      <c r="S9" t="inlineStr">
+      <c r="S9" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -724,7 +728,7 @@
         <f>IF(E10&gt;1,(1.732*D10*F10)/1000,(D10*F10)/1000)</f>
         <v/>
       </c>
-      <c r="S10" t="inlineStr">
+      <c r="S10" s="9" t="inlineStr">
         <is>
           <t>WITH DOME</t>
         </is>
@@ -768,6 +772,7 @@
           <t>5/8"</t>
         </is>
       </c>
+      <c r="S11" s="9" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="5" t="n">
@@ -788,6 +793,7 @@
           <t>1"</t>
         </is>
       </c>
+      <c r="S12" s="9" t="n"/>
     </row>
     <row r="13">
       <c r="A13" s="5" t="n">
@@ -821,7 +827,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
-      <c r="S13" t="inlineStr">
+      <c r="S13" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION WITH SOAP AND TOWEL DISPENSER</t>
         </is>
@@ -852,7 +858,7 @@
         <f>IF(E14&gt;1,(1.732*D14*F14)/1000,(D14*F14)/1000)</f>
         <v/>
       </c>
-      <c r="S14" t="inlineStr">
+      <c r="S14" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -883,6 +889,7 @@
         <f>IF(E15&gt;1,(1.732*D15*F15)/1000,(D15*F15)/1000)</f>
         <v/>
       </c>
+      <c r="S15" s="9" t="n"/>
     </row>
     <row r="16">
       <c r="A16" s="5" t="n">
@@ -914,7 +921,7 @@
           <t>3/8"</t>
         </is>
       </c>
-      <c r="S16" t="inlineStr">
+      <c r="S16" s="9" t="inlineStr">
         <is>
           <t>WITH BIN AIR-COOLED 3OOLBS</t>
         </is>
@@ -939,7 +946,7 @@
           <t>3/8"</t>
         </is>
       </c>
-      <c r="S17" t="inlineStr">
+      <c r="S17" s="9" t="inlineStr">
         <is>
           <t>FOR ITEM #8</t>
         </is>
@@ -961,6 +968,7 @@
       </c>
       <c r="F18" s="7" t="n"/>
       <c r="G18" s="8" t="n"/>
+      <c r="S18" s="9" t="n"/>
     </row>
     <row r="19">
       <c r="A19" s="5" t="n">
@@ -995,6 +1003,7 @@
       <c r="J19" t="n">
         <v>11.5</v>
       </c>
+      <c r="S19" s="9" t="n"/>
     </row>
     <row r="20">
       <c r="A20" s="5" t="n">
@@ -1021,7 +1030,7 @@
         <f>IF(E20&gt;1,(1.732*D20*F20)/1000,(D20*F20)/1000)</f>
         <v/>
       </c>
-      <c r="S20" t="inlineStr">
+      <c r="S20" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -1041,6 +1050,7 @@
       </c>
       <c r="F21" s="7" t="n"/>
       <c r="G21" s="8" t="n"/>
+      <c r="S21" s="9" t="n"/>
     </row>
     <row r="22">
       <c r="A22" s="5" t="n">
@@ -1056,6 +1066,7 @@
       </c>
       <c r="F22" s="7" t="n"/>
       <c r="G22" s="8" t="n"/>
+      <c r="S22" s="9" t="n"/>
     </row>
     <row r="23">
       <c r="A23" s="5" t="n">
@@ -1073,6 +1084,7 @@
       </c>
       <c r="F23" s="7" t="n"/>
       <c r="G23" s="8" t="n"/>
+      <c r="S23" s="9" t="n"/>
     </row>
     <row r="24">
       <c r="A24" s="5" t="n">
@@ -1107,6 +1119,7 @@
       <c r="J24" t="n">
         <v>10</v>
       </c>
+      <c r="S24" s="9" t="n"/>
     </row>
     <row r="25">
       <c r="A25" s="5" t="n">
@@ -1122,6 +1135,7 @@
       </c>
       <c r="F25" s="7" t="n"/>
       <c r="G25" s="8" t="n"/>
+      <c r="S25" s="9" t="n"/>
     </row>
     <row r="26">
       <c r="A26" s="5" t="n">
@@ -1148,7 +1162,7 @@
         <f>IF(E26&gt;1,(1.732*D26*F26)/1000,(D26*F26)/1000)</f>
         <v/>
       </c>
-      <c r="S26" t="inlineStr">
+      <c r="S26" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -1170,6 +1184,7 @@
       </c>
       <c r="F27" s="7" t="n"/>
       <c r="G27" s="8" t="n"/>
+      <c r="S27" s="9" t="n"/>
     </row>
     <row r="28">
       <c r="A28" s="5" t="n">
@@ -1187,6 +1202,7 @@
       </c>
       <c r="F28" s="7" t="n"/>
       <c r="G28" s="8" t="n"/>
+      <c r="S28" s="9" t="n"/>
     </row>
     <row r="29">
       <c r="A29" s="5" t="n">
@@ -1213,6 +1229,7 @@
         <f>IF(E29&gt;1,(1.732*D29*F29)/1000,(D29*F29)/1000)</f>
         <v/>
       </c>
+      <c r="S29" s="9" t="n"/>
     </row>
     <row r="30">
       <c r="A30" s="5" t="n">
@@ -1244,6 +1261,7 @@
           <t>1 1/2"</t>
         </is>
       </c>
+      <c r="S30" s="9" t="n"/>
     </row>
     <row r="31">
       <c r="A31" s="5" t="n">
@@ -1275,6 +1293,7 @@
           <t>1 1/2"</t>
         </is>
       </c>
+      <c r="S31" s="9" t="n"/>
     </row>
     <row r="32">
       <c r="A32" s="5" t="n">
@@ -1290,7 +1309,7 @@
       </c>
       <c r="F32" s="7" t="n"/>
       <c r="G32" s="8" t="n"/>
-      <c r="S32" t="inlineStr">
+      <c r="S32" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -1321,7 +1340,7 @@
         <f>IF(E33&gt;1,(1.732*D33*F33)/1000,(D33*F33)/1000)</f>
         <v/>
       </c>
-      <c r="S33" t="inlineStr">
+      <c r="S33" s="9" t="inlineStr">
         <is>
           <t>BY OS&amp;E</t>
         </is>
@@ -1343,6 +1362,7 @@
       </c>
       <c r="F34" s="7" t="n"/>
       <c r="G34" s="8" t="n"/>
+      <c r="S34" s="9" t="n"/>
     </row>
     <row r="35">
       <c r="A35" s="5" t="n">
@@ -1369,7 +1389,7 @@
         <f>IF(E35&gt;1,(1.732*D35*F35)/1000,(D35*F35)/1000)</f>
         <v/>
       </c>
-      <c r="S35" t="inlineStr">
+      <c r="S35" s="9" t="inlineStr">
         <is>
           <t>BY OS&amp;E</t>
         </is>
@@ -1389,7 +1409,7 @@
       </c>
       <c r="F36" s="7" t="n"/>
       <c r="G36" s="8" t="n"/>
-      <c r="S36" t="inlineStr">
+      <c r="S36" s="9" t="inlineStr">
         <is>
           <t>BY VENDOR</t>
         </is>
@@ -1409,7 +1429,7 @@
       </c>
       <c r="F37" s="7" t="n"/>
       <c r="G37" s="8" t="n"/>
-      <c r="S37" t="inlineStr">
+      <c r="S37" s="9" t="inlineStr">
         <is>
           <t>SLIM JIM</t>
         </is>
@@ -1431,6 +1451,7 @@
       </c>
       <c r="F38" s="7" t="n"/>
       <c r="G38" s="8" t="n"/>
+      <c r="S38" s="9" t="n"/>
     </row>
     <row r="39">
       <c r="A39" s="5" t="n">
@@ -1448,6 +1469,7 @@
       </c>
       <c r="F39" s="7" t="n"/>
       <c r="G39" s="8" t="n"/>
+      <c r="S39" s="9" t="n"/>
     </row>
     <row r="40">
       <c r="A40" s="5" t="n">
@@ -1463,7 +1485,7 @@
       </c>
       <c r="F40" s="7" t="n"/>
       <c r="G40" s="8" t="n"/>
-      <c r="S40" t="inlineStr">
+      <c r="S40" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #23</t>
         </is>
@@ -1483,7 +1505,7 @@
       </c>
       <c r="F41" s="7" t="n"/>
       <c r="G41" s="8" t="n"/>
-      <c r="S41" t="inlineStr">
+      <c r="S41" s="9" t="inlineStr">
         <is>
           <t>BY VENDOR</t>
         </is>
@@ -1514,7 +1536,7 @@
         <f>IF(E42&gt;1,(1.732*D42*F42)/1000,(D42*F42)/1000)</f>
         <v/>
       </c>
-      <c r="S42" t="inlineStr">
+      <c r="S42" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -1534,7 +1556,7 @@
       </c>
       <c r="F43" s="7" t="n"/>
       <c r="G43" s="8" t="n"/>
-      <c r="S43" t="inlineStr">
+      <c r="S43" s="9" t="inlineStr">
         <is>
           <t>MILLWORK / BY GENERAL CONTRACTOR</t>
         </is>
@@ -1556,6 +1578,7 @@
       </c>
       <c r="F44" s="7" t="n"/>
       <c r="G44" s="8" t="n"/>
+      <c r="S44" s="9" t="n"/>
     </row>
     <row r="45">
       <c r="A45" s="5" t="n">
@@ -1571,7 +1594,7 @@
       </c>
       <c r="F45" s="7" t="n"/>
       <c r="G45" s="8" t="n"/>
-      <c r="S45" t="inlineStr">
+      <c r="S45" s="9" t="inlineStr">
         <is>
           <t>BY VENDOR</t>
         </is>
@@ -1612,6 +1635,7 @@
           <t>1 1/2"</t>
         </is>
       </c>
+      <c r="S46" s="9" t="n"/>
     </row>
     <row r="47">
       <c r="A47" s="5" t="n">
@@ -1637,6 +1661,7 @@
           <t>1/2"</t>
         </is>
       </c>
+      <c r="S47" s="9" t="n"/>
     </row>
     <row r="48">
       <c r="A48" s="5" t="n">
@@ -1654,6 +1679,7 @@
       </c>
       <c r="F48" s="7" t="n"/>
       <c r="G48" s="8" t="n"/>
+      <c r="S48" s="9" t="n"/>
     </row>
     <row r="49">
       <c r="A49" s="5" t="n">
@@ -1671,6 +1697,7 @@
       </c>
       <c r="F49" s="7" t="n"/>
       <c r="G49" s="8" t="n"/>
+      <c r="S49" s="9" t="n"/>
     </row>
     <row r="50">
       <c r="A50" s="5" t="n">
@@ -1696,6 +1723,7 @@
           <t>1 1/4"</t>
         </is>
       </c>
+      <c r="S50" s="9" t="n"/>
     </row>
     <row r="51">
       <c r="A51" s="5" t="n">
@@ -1721,6 +1749,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
+      <c r="S51" s="9" t="n"/>
     </row>
     <row r="52">
       <c r="A52" s="5" t="n">
@@ -1747,7 +1776,7 @@
         <f>IF(E52&gt;1,(1.732*D52*F52)/1000,(D52*F52)/1000)</f>
         <v/>
       </c>
-      <c r="S52" t="inlineStr">
+      <c r="S52" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -1769,6 +1798,7 @@
       </c>
       <c r="F53" s="7" t="n"/>
       <c r="G53" s="8" t="n"/>
+      <c r="S53" s="9" t="n"/>
     </row>
     <row r="54">
       <c r="A54" s="5" t="n">
@@ -1786,6 +1816,7 @@
       </c>
       <c r="F54" s="7" t="n"/>
       <c r="G54" s="8" t="n"/>
+      <c r="S54" s="9" t="n"/>
     </row>
     <row r="55">
       <c r="A55" s="5" t="n">
@@ -1812,7 +1843,7 @@
         <f>IF(E55&gt;1,(1.732*D55*F55)/1000,(D55*F55)/1000)</f>
         <v/>
       </c>
-      <c r="S55" t="inlineStr">
+      <c r="S55" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -1843,7 +1874,7 @@
         <f>IF(E56&gt;1,(1.732*D56*F56)/1000,(D56*F56)/1000)</f>
         <v/>
       </c>
-      <c r="S56" t="inlineStr">
+      <c r="S56" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -1874,6 +1905,7 @@
         <f>IF(E57&gt;1,(1.732*D57*F57)/1000,(D57*F57)/1000)</f>
         <v/>
       </c>
+      <c r="S57" s="9" t="n"/>
     </row>
     <row r="58">
       <c r="A58" s="5" t="n">
@@ -1891,6 +1923,7 @@
       </c>
       <c r="F58" s="7" t="n"/>
       <c r="G58" s="8" t="n"/>
+      <c r="S58" s="9" t="n"/>
     </row>
     <row r="59">
       <c r="A59" s="5" t="n">
@@ -1908,6 +1941,7 @@
       </c>
       <c r="F59" s="7" t="n"/>
       <c r="G59" s="8" t="n"/>
+      <c r="S59" s="9" t="n"/>
     </row>
     <row r="60">
       <c r="A60" s="5" t="n">
@@ -1923,7 +1957,7 @@
       </c>
       <c r="F60" s="7" t="n"/>
       <c r="G60" s="8" t="n"/>
-      <c r="S60" t="inlineStr">
+      <c r="S60" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #63</t>
         </is>
@@ -1943,7 +1977,7 @@
       </c>
       <c r="F61" s="7" t="n"/>
       <c r="G61" s="8" t="n"/>
-      <c r="S61" t="inlineStr">
+      <c r="S61" s="9" t="inlineStr">
         <is>
           <t>SLIM JIM</t>
         </is>
@@ -1963,6 +1997,7 @@
       </c>
       <c r="F62" s="7" t="n"/>
       <c r="G62" s="8" t="n"/>
+      <c r="S62" s="9" t="n"/>
     </row>
     <row r="63">
       <c r="A63" s="5" t="n">
@@ -1978,6 +2013,7 @@
       </c>
       <c r="F63" s="7" t="n"/>
       <c r="G63" s="8" t="n"/>
+      <c r="S63" s="9" t="n"/>
     </row>
     <row r="64">
       <c r="A64" s="5" t="n">
@@ -1995,6 +2031,7 @@
       </c>
       <c r="F64" s="7" t="n"/>
       <c r="G64" s="8" t="n"/>
+      <c r="S64" s="9" t="n"/>
     </row>
     <row r="65">
       <c r="A65" s="5" t="n">
@@ -2010,6 +2047,7 @@
       </c>
       <c r="F65" s="7" t="n"/>
       <c r="G65" s="8" t="n"/>
+      <c r="S65" s="9" t="n"/>
     </row>
     <row r="66">
       <c r="A66" s="5" t="n">
@@ -2025,7 +2063,7 @@
       </c>
       <c r="F66" s="7" t="n"/>
       <c r="G66" s="8" t="n"/>
-      <c r="S66" t="inlineStr">
+      <c r="S66" s="9" t="inlineStr">
         <is>
           <t>SLIM JIM</t>
         </is>
@@ -2045,7 +2083,7 @@
       </c>
       <c r="F67" s="7" t="n"/>
       <c r="G67" s="8" t="n"/>
-      <c r="S67" t="inlineStr">
+      <c r="S67" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #63</t>
         </is>
@@ -2067,6 +2105,7 @@
       </c>
       <c r="F68" s="7" t="n"/>
       <c r="G68" s="8" t="n"/>
+      <c r="S68" s="9" t="n"/>
     </row>
     <row r="69">
       <c r="A69" s="5" t="n">
@@ -2084,6 +2123,7 @@
       </c>
       <c r="F69" s="7" t="n"/>
       <c r="G69" s="8" t="n"/>
+      <c r="S69" s="9" t="n"/>
     </row>
     <row r="70">
       <c r="A70" s="5" t="n">
@@ -2110,7 +2150,7 @@
         <f>IF(E70&gt;1,(1.732*D70*F70)/1000,(D70*F70)/1000)</f>
         <v/>
       </c>
-      <c r="S70" t="inlineStr">
+      <c r="S70" s="9" t="inlineStr">
         <is>
           <t>BY OS&amp;E</t>
         </is>
@@ -2141,7 +2181,7 @@
         <f>IF(E71&gt;1,(1.732*D71*F71)/1000,(D71*F71)/1000)</f>
         <v/>
       </c>
-      <c r="S71" t="inlineStr">
+      <c r="S71" s="9" t="inlineStr">
         <is>
           <t>BY OS&amp;E</t>
         </is>
@@ -2172,7 +2212,7 @@
         <f>IF(E72&gt;1,(1.732*D72*F72)/1000,(D72*F72)/1000)</f>
         <v/>
       </c>
-      <c r="S72" t="inlineStr">
+      <c r="S72" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -2192,7 +2232,7 @@
       </c>
       <c r="F73" s="7" t="n"/>
       <c r="G73" s="8" t="n"/>
-      <c r="S73" t="inlineStr">
+      <c r="S73" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -2214,6 +2254,7 @@
       </c>
       <c r="F74" s="7" t="n"/>
       <c r="G74" s="8" t="n"/>
+      <c r="S74" s="9" t="n"/>
     </row>
     <row r="75">
       <c r="A75" s="5" t="n">
@@ -2229,6 +2270,7 @@
       </c>
       <c r="F75" s="7" t="n"/>
       <c r="G75" s="8" t="n"/>
+      <c r="S75" s="9" t="n"/>
     </row>
     <row r="76">
       <c r="A76" s="5" t="n">
@@ -2255,6 +2297,7 @@
         <f>IF(E76&gt;1,(1.732*D76*F76)/1000,(D76*F76)/1000)</f>
         <v/>
       </c>
+      <c r="S76" s="9" t="n"/>
     </row>
     <row r="77">
       <c r="A77" s="5" t="n">
@@ -2268,7 +2311,7 @@
           <t>HOT FOOD VENDING MACHINE</t>
         </is>
       </c>
-      <c r="D77" s="9" t="n">
+      <c r="D77" s="10" t="n">
         <v>260</v>
       </c>
       <c r="E77" t="n">
@@ -2281,6 +2324,7 @@
         <f>IF(E77&gt;1,(1.732*D77*F77)/1000,(D77*F77)/1000)</f>
         <v/>
       </c>
+      <c r="S77" s="9" t="n"/>
     </row>
     <row r="78">
       <c r="A78" s="5" t="n">
@@ -2298,6 +2342,7 @@
       </c>
       <c r="F78" s="7" t="n"/>
       <c r="G78" s="8" t="n"/>
+      <c r="S78" s="9" t="n"/>
     </row>
     <row r="79">
       <c r="A79" s="5" t="n">
@@ -2311,7 +2356,7 @@
           <t>PIZZA VENDING MACHINE</t>
         </is>
       </c>
-      <c r="D79" s="9" t="n">
+      <c r="D79" s="10" t="n">
         <v>230</v>
       </c>
       <c r="E79" t="n">
@@ -2324,6 +2369,7 @@
         <f>IF(E79&gt;1,(1.732*D79*F79)/1000,(D79*F79)/1000)</f>
         <v/>
       </c>
+      <c r="S79" s="9" t="n"/>
     </row>
     <row r="80">
       <c r="A80" s="5" t="n">
@@ -2341,6 +2387,7 @@
       </c>
       <c r="F80" s="7" t="n"/>
       <c r="G80" s="8" t="n"/>
+      <c r="S80" s="9" t="n"/>
     </row>
     <row r="81">
       <c r="A81" s="5" t="n">
@@ -2358,6 +2405,7 @@
       </c>
       <c r="F81" s="7" t="n"/>
       <c r="G81" s="8" t="n"/>
+      <c r="S81" s="9" t="n"/>
     </row>
     <row r="82">
       <c r="A82" s="5" t="n">
@@ -2375,6 +2423,7 @@
       </c>
       <c r="F82" s="7" t="n"/>
       <c r="G82" s="8" t="n"/>
+      <c r="S82" s="9" t="n"/>
     </row>
     <row r="83">
       <c r="A83" s="5" t="inlineStr">
@@ -2394,6 +2443,7 @@
       </c>
       <c r="F83" s="7" t="n"/>
       <c r="G83" s="8" t="n"/>
+      <c r="S83" s="9" t="n"/>
     </row>
     <row r="84">
       <c r="A84" s="3" t="inlineStr">
@@ -2452,7 +2502,7 @@
           <t>(3)2"</t>
         </is>
       </c>
-      <c r="S85" t="inlineStr">
+      <c r="S85" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -2472,7 +2522,7 @@
       </c>
       <c r="F86" s="7" t="n"/>
       <c r="G86" s="8" t="n"/>
-      <c r="S86" t="inlineStr">
+      <c r="S86" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -2503,7 +2553,7 @@
         <f>IF(E87&gt;1,(1.732*D87*F87)/1000,(D87*F87)/1000)</f>
         <v/>
       </c>
-      <c r="S87" t="inlineStr">
+      <c r="S87" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -2534,7 +2584,7 @@
         <f>IF(E88&gt;1,(1.732*D88*F88)/1000,(D88*F88)/1000)</f>
         <v/>
       </c>
-      <c r="S88" t="inlineStr">
+      <c r="S88" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -2556,6 +2606,7 @@
       </c>
       <c r="F89" s="7" t="n"/>
       <c r="G89" s="8" t="n"/>
+      <c r="S89" s="9" t="n"/>
     </row>
     <row r="90">
       <c r="A90" s="5" t="n">
@@ -2571,6 +2622,7 @@
       </c>
       <c r="F90" s="7" t="n"/>
       <c r="G90" s="8" t="n"/>
+      <c r="S90" s="9" t="n"/>
     </row>
     <row r="91">
       <c r="A91" s="5" t="n">
@@ -2607,6 +2659,7 @@
           <t>6.5"</t>
         </is>
       </c>
+      <c r="S91" s="9" t="n"/>
     </row>
     <row r="92">
       <c r="A92" s="5" t="n">
@@ -2640,7 +2693,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
-      <c r="S92" t="inlineStr">
+      <c r="S92" s="9" t="inlineStr">
         <is>
           <t>WITH VENDOR PROVIDED SOAP &amp; TOWEL DISPENSER</t>
         </is>
@@ -2662,6 +2715,7 @@
       </c>
       <c r="F93" s="7" t="n"/>
       <c r="G93" s="8" t="n"/>
+      <c r="S93" s="9" t="n"/>
     </row>
     <row r="94">
       <c r="A94" s="5" t="n">
@@ -2679,6 +2733,7 @@
       </c>
       <c r="F94" s="7" t="n"/>
       <c r="G94" s="8" t="n"/>
+      <c r="S94" s="9" t="n"/>
     </row>
     <row r="95">
       <c r="A95" s="5" t="n">
@@ -2694,7 +2749,7 @@
       </c>
       <c r="F95" s="7" t="n"/>
       <c r="G95" s="8" t="n"/>
-      <c r="S95" t="inlineStr">
+      <c r="S95" s="9" t="inlineStr">
         <is>
           <t>SLIM JIM</t>
         </is>
@@ -2716,6 +2771,7 @@
       </c>
       <c r="F96" s="7" t="n"/>
       <c r="G96" s="8" t="n"/>
+      <c r="S96" s="9" t="n"/>
     </row>
     <row r="97">
       <c r="A97" s="5" t="n">
@@ -2733,6 +2789,7 @@
       </c>
       <c r="F97" s="7" t="n"/>
       <c r="G97" s="8" t="n"/>
+      <c r="S97" s="9" t="n"/>
     </row>
     <row r="98">
       <c r="A98" s="5" t="n">
@@ -2750,6 +2807,7 @@
       </c>
       <c r="F98" s="7" t="n"/>
       <c r="G98" s="8" t="n"/>
+      <c r="S98" s="9" t="n"/>
     </row>
     <row r="99">
       <c r="A99" s="5" t="inlineStr">
@@ -2769,43 +2827,45 @@
       </c>
       <c r="F99" s="7" t="n"/>
       <c r="G99" s="8" t="n"/>
+      <c r="S99" s="9" t="n"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr"/>
     </row>
     <row r="101">
-      <c r="A101" s="10" t="inlineStr">
+      <c r="A101" s="11" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="G101" s="11">
+      <c r="G101" s="12">
         <f>SUM(G7:G100)</f>
         <v/>
       </c>
-      <c r="J101" s="11">
+      <c r="J101" s="12">
         <f>SUM(J7:J100)</f>
         <v/>
       </c>
-      <c r="M101" s="11">
+      <c r="M101" s="12">
         <f>SUM(M7:M100)</f>
         <v/>
       </c>
-      <c r="N101" s="11">
+      <c r="N101" s="12">
         <f>SUM(N7:N100)</f>
         <v/>
       </c>
-      <c r="O101" s="11">
+      <c r="O101" s="12">
         <f>SUM(O7:O100)</f>
         <v/>
       </c>
-      <c r="P101" s="11">
+      <c r="P101" s="12">
         <f>SUM(P7:P100)</f>
         <v/>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="landscape" paperSize="3" fitToHeight="0"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>